--- a/remote-results/results/marsden/marsden-results.xlsx
+++ b/remote-results/results/marsden/marsden-results.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D32EB8E-991B-43DA-A075-4D5830DEA35F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B873E2-86D2-45FA-A6C1-28A0864AAB95}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="7" r:id="rId1"/>
@@ -14,7 +14,8 @@
     <sheet name="split-1-counts" sheetId="3" r:id="rId4"/>
     <sheet name="split-1-history" sheetId="4" r:id="rId5"/>
     <sheet name="split-2-counts" sheetId="5" r:id="rId6"/>
-    <sheet name="split-2-history" sheetId="6" r:id="rId7"/>
+    <sheet name="split-2-korrelation" sheetId="8" r:id="rId7"/>
+    <sheet name="split-2-history" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'split-0-counts'!$A$1:$D$101</definedName>
@@ -22,9 +23,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'split-1-counts'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'split-1-history'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'split-2-counts'!$A$1:$I$101</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'split-2-history'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'split-2-history'!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,6 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="126">
   <si>
     <t>pred count</t>
   </si>
@@ -412,6 +414,12 @@
   <si>
     <t>Windows Index</t>
   </si>
+  <si>
+    <t>Absolute Korrelation</t>
+  </si>
+  <si>
+    <t>Relative Korrelation</t>
+  </si>
 </sst>
 </file>
 
@@ -590,103 +598,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>620.08851291183203</c:v>
+                  <c:v>119.294941764656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>501.19809131285399</c:v>
+                  <c:v>148.97036544308099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>451.531945540658</c:v>
+                  <c:v>149.26188632848701</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>161.036347914581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>215.702717299406</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>228.95067633872799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>237.799859554215</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>241.05421702855401</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>272.375369907991</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>838.39826506611496</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>764.40631068908101</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>273.376205780406</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>281.83863884012999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>293.61879562587001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>299.21131044704998</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>303.56178346553901</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>486.864857221916</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>119.294941764656</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>293.61879562587001</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
+                  <c:v>303.65469990887999</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>329.366374829346</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>532.03061407634402</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>237.799859554215</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>609.01624296754301</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>281.83863884012999</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>329.56875386027599</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>623.63346122808503</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>331.211512959902</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>303.65469990887999</c:v>
+                  <c:v>393.80879736490698</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>161.036347914581</c:v>
+                  <c:v>414.46032505437802</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>418.756733795054</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>414.46032505437802</c:v>
+                  <c:v>451.531945540658</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>149.26188632848701</c:v>
+                  <c:v>473.563338397255</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>273.376205780406</c:v>
+                  <c:v>486.864857221916</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>241.05421702855401</c:v>
+                  <c:v>501.19809131285399</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>215.702717299406</c:v>
+                  <c:v>531.75973386455405</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>532.03061407634402</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>535.87594210582597</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>148.97036544308099</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>473.563338397255</c:v>
+                  <c:v>609.01624296754301</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>531.75973386455405</c:v>
+                  <c:v>620.08851291183203</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>299.21131044704998</c:v>
+                  <c:v>623.63346122808503</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>228.95067633872799</c:v>
+                  <c:v>764.40631068908101</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>393.80879736490698</c:v>
+                  <c:v>838.39826506611496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -698,103 +706,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>451.113189697265</c:v>
+                  <c:v>201.09440612792901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>379.45809936523398</c:v>
+                  <c:v>134.27748107910099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>333.40493774414</c:v>
+                  <c:v>166.72196960449199</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>184.89289855957</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>199.27615356445301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>227.627517700195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>294.75125122070301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>257.508056640625</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>386.14212036132801</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>738.38610839843705</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>672.613037109375</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>289.88739013671801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>323.85678100585898</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>374.43716430664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>307.93194580078102</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>219.85231018066401</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>404.02548217773398</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>201.09440612792901</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>374.43716430664</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
+                  <c:v>333.21325683593699</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>406.57620239257801</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>473.083740234375</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>294.75125122070301</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>561.31964111328102</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>323.85678100585898</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>292.19519042968699</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>588.41320800781205</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>363.35455322265602</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>333.21325683593699</c:v>
+                  <c:v>393.62634277343699</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>184.89289855957</c:v>
+                  <c:v>395.87487792968699</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>396.14340209960898</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>395.87487792968699</c:v>
+                  <c:v>333.40493774414</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>166.72196960449199</c:v>
+                  <c:v>485.52694702148398</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>289.88739013671801</c:v>
+                  <c:v>404.02548217773398</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>257.508056640625</c:v>
+                  <c:v>379.45809936523398</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>199.27615356445301</c:v>
+                  <c:v>543.22033691406205</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>473.083740234375</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>551.11315917968705</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>134.27748107910099</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>485.52694702148398</c:v>
+                  <c:v>561.31964111328102</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>543.22033691406205</c:v>
+                  <c:v>451.113189697265</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>307.93194580078102</c:v>
+                  <c:v>588.41320800781205</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>227.627517700195</c:v>
+                  <c:v>672.613037109375</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>393.62634277343699</c:v>
+                  <c:v>738.38610839843705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -845,103 +853,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>620.08851291183203</c:v>
+                  <c:v>119.294941764656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>501.19809131285399</c:v>
+                  <c:v>148.97036544308099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>451.531945540658</c:v>
+                  <c:v>149.26188632848701</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>161.036347914581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>215.702717299406</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>228.95067633872799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>237.799859554215</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>241.05421702855401</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>272.375369907991</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>838.39826506611496</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>764.40631068908101</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>273.376205780406</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>281.83863884012999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>293.61879562587001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>299.21131044704998</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>303.56178346553901</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>486.864857221916</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>119.294941764656</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>293.61879562587001</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
+                  <c:v>303.65469990887999</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>329.366374829346</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>532.03061407634402</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>237.799859554215</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>609.01624296754301</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>281.83863884012999</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>329.56875386027599</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>623.63346122808503</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>331.211512959902</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>303.65469990887999</c:v>
+                  <c:v>393.80879736490698</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>161.036347914581</c:v>
+                  <c:v>414.46032505437802</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>418.756733795054</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>414.46032505437802</c:v>
+                  <c:v>451.531945540658</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>149.26188632848701</c:v>
+                  <c:v>473.563338397255</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>273.376205780406</c:v>
+                  <c:v>486.864857221916</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>241.05421702855401</c:v>
+                  <c:v>501.19809131285399</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>215.702717299406</c:v>
+                  <c:v>531.75973386455405</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>532.03061407634402</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>535.87594210582597</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>148.97036544308099</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>473.563338397255</c:v>
+                  <c:v>609.01624296754301</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>531.75973386455405</c:v>
+                  <c:v>620.08851291183203</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>299.21131044704998</c:v>
+                  <c:v>623.63346122808503</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>228.95067633872799</c:v>
+                  <c:v>764.40631068908101</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>393.80879736490698</c:v>
+                  <c:v>838.39826506611496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -953,103 +961,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>620.08851291183203</c:v>
+                  <c:v>119.294941764656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>501.19809131285399</c:v>
+                  <c:v>148.97036544308099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>451.531945540658</c:v>
+                  <c:v>149.26188632848701</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>161.036347914581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>215.702717299406</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>228.95067633872799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>237.799859554215</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>241.05421702855401</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>272.375369907991</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>838.39826506611496</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>764.40631068908101</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>273.376205780406</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>281.83863884012999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>293.61879562587001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>299.21131044704998</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>303.56178346553901</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>486.864857221916</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>119.294941764656</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>293.61879562587001</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
+                  <c:v>303.65469990887999</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>329.366374829346</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>532.03061407634402</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>237.799859554215</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>609.01624296754301</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>281.83863884012999</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>329.56875386027599</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>623.63346122808503</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>331.211512959902</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>303.65469990887999</c:v>
+                  <c:v>393.80879736490698</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>161.036347914581</c:v>
+                  <c:v>414.46032505437802</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>418.756733795054</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>414.46032505437802</c:v>
+                  <c:v>451.531945540658</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>149.26188632848701</c:v>
+                  <c:v>473.563338397255</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>273.376205780406</c:v>
+                  <c:v>486.864857221916</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>241.05421702855401</c:v>
+                  <c:v>501.19809131285399</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>215.702717299406</c:v>
+                  <c:v>531.75973386455405</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>532.03061407634402</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>535.87594210582597</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>148.97036544308099</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>473.563338397255</c:v>
+                  <c:v>609.01624296754301</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>531.75973386455405</c:v>
+                  <c:v>620.08851291183203</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>299.21131044704998</c:v>
+                  <c:v>623.63346122808503</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>228.95067633872799</c:v>
+                  <c:v>764.40631068908101</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>393.80879736490698</c:v>
+                  <c:v>838.39826506611496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1524,103 +1532,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>451.113189697265</c:v>
+                  <c:v>201.09440612792901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>379.45809936523398</c:v>
+                  <c:v>134.27748107910099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>333.40493774414</c:v>
+                  <c:v>166.72196960449199</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>184.89289855957</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>199.27615356445301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>227.627517700195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>294.75125122070301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>257.508056640625</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>386.14212036132801</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>738.38610839843705</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>672.613037109375</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>289.88739013671801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>323.85678100585898</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>374.43716430664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>307.93194580078102</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>219.85231018066401</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>404.02548217773398</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>201.09440612792901</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>374.43716430664</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
+                  <c:v>333.21325683593699</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>406.57620239257801</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>473.083740234375</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>294.75125122070301</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>561.31964111328102</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>323.85678100585898</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>292.19519042968699</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>588.41320800781205</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>363.35455322265602</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>333.21325683593699</c:v>
+                  <c:v>393.62634277343699</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>184.89289855957</c:v>
+                  <c:v>395.87487792968699</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>396.14340209960898</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>395.87487792968699</c:v>
+                  <c:v>333.40493774414</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>166.72196960449199</c:v>
+                  <c:v>485.52694702148398</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>289.88739013671801</c:v>
+                  <c:v>404.02548217773398</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>257.508056640625</c:v>
+                  <c:v>379.45809936523398</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>199.27615356445301</c:v>
+                  <c:v>543.22033691406205</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>473.083740234375</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>551.11315917968705</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>134.27748107910099</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>485.52694702148398</c:v>
+                  <c:v>561.31964111328102</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>543.22033691406205</c:v>
+                  <c:v>451.113189697265</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>307.93194580078102</c:v>
+                  <c:v>588.41320800781205</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>227.627517700195</c:v>
+                  <c:v>672.613037109375</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>393.62634277343699</c:v>
+                  <c:v>738.38610839843705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1657,103 +1665,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>620.08851291183203</c:v>
+                  <c:v>119.294941764656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>501.19809131285399</c:v>
+                  <c:v>148.97036544308099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>451.531945540658</c:v>
+                  <c:v>149.26188632848701</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>161.036347914581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>215.702717299406</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>228.95067633872799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>237.799859554215</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>241.05421702855401</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>272.375369907991</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>838.39826506611496</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>764.40631068908101</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>273.376205780406</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>281.83863884012999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>293.61879562587001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>299.21131044704998</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>303.56178346553901</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>486.864857221916</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>119.294941764656</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>293.61879562587001</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
+                  <c:v>303.65469990887999</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>329.366374829346</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>532.03061407634402</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>237.799859554215</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>609.01624296754301</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>281.83863884012999</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>329.56875386027599</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>623.63346122808503</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>331.211512959902</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>303.65469990887999</c:v>
+                  <c:v>393.80879736490698</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>161.036347914581</c:v>
+                  <c:v>414.46032505437802</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>418.756733795054</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>414.46032505437802</c:v>
+                  <c:v>451.531945540658</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>149.26188632848701</c:v>
+                  <c:v>473.563338397255</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>273.376205780406</c:v>
+                  <c:v>486.864857221916</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>241.05421702855401</c:v>
+                  <c:v>501.19809131285399</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>215.702717299406</c:v>
+                  <c:v>531.75973386455405</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>532.03061407634402</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>535.87594210582597</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>148.97036544308099</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>473.563338397255</c:v>
+                  <c:v>609.01624296754301</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>531.75973386455405</c:v>
+                  <c:v>620.08851291183203</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>299.21131044704998</c:v>
+                  <c:v>623.63346122808503</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>228.95067633872799</c:v>
+                  <c:v>764.40631068908101</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>393.80879736490698</c:v>
+                  <c:v>838.39826506611496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1805,7 +1813,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Anzahl Beeren</a:t>
+                  <a:t>Bildindex</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3144,6 +3152,66 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Zusammenhang zwischen Beeren</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> pro Bild und der Abweichung</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -3188,11 +3256,11 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="31750" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="dash"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -3207,103 +3275,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>620.08851291183203</c:v>
+                  <c:v>119.294941764656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>501.19809131285399</c:v>
+                  <c:v>148.97036544308099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>451.531945540658</c:v>
+                  <c:v>149.26188632848701</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>161.036347914581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>215.702717299406</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>228.95067633872799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>237.799859554215</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>241.05421702855401</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>272.375369907991</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>838.39826506611496</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>764.40631068908101</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>273.376205780406</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>281.83863884012999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>293.61879562587001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>299.21131044704998</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>303.56178346553901</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>486.864857221916</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>119.294941764656</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>293.61879562587001</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
+                  <c:v>303.65469990887999</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>329.366374829346</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>532.03061407634402</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>237.799859554215</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>609.01624296754301</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>281.83863884012999</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>329.56875386027599</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>623.63346122808503</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>331.211512959902</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>303.65469990887999</c:v>
+                  <c:v>393.80879736490698</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>161.036347914581</c:v>
+                  <c:v>414.46032505437802</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>418.756733795054</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>414.46032505437802</c:v>
+                  <c:v>451.531945540658</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>149.26188632848701</c:v>
+                  <c:v>473.563338397255</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>273.376205780406</c:v>
+                  <c:v>486.864857221916</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>241.05421702855401</c:v>
+                  <c:v>501.19809131285399</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>215.702717299406</c:v>
+                  <c:v>531.75973386455405</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>532.03061407634402</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>535.87594210582597</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>148.97036544308099</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>473.563338397255</c:v>
+                  <c:v>609.01624296754301</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>531.75973386455405</c:v>
+                  <c:v>620.08851291183203</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>299.21131044704998</c:v>
+                  <c:v>623.63346122808503</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>228.95067633872799</c:v>
+                  <c:v>764.40631068908101</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>393.80879736490698</c:v>
+                  <c:v>838.39826506611496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3315,103 +3383,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>168.97532321456703</c:v>
+                  <c:v>81.799464363273003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>121.73999194762001</c:v>
+                  <c:v>14.692884363979999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>118.127007796518</c:v>
+                  <c:v>17.46008327600498</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>23.856550644988999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.426563734952992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3231586385329877</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.951391666488007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.453839612070993</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>113.76675045333701</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>100.01215666767791</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>91.79327357970601</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>16.511184356312015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.018142165728989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80.818368680769993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.7206353537310406</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>83.709473284875003</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>82.83937504418202</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>81.799464363273003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>80.818368680769993</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
+                  <c:v>29.558556927056998</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>77.209827563232011</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>58.946873841969023</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>56.951391666488007</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>47.696601854261985</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42.018142165728989</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>37.373563430589002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>35.22025322027298</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>32.143040262754027</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29.558556927056998</c:v>
+                  <c:v>0.1824545914699911</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23.856550644988999</c:v>
+                  <c:v>18.585447124691029</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>22.613331695445027</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18.585447124691029</c:v>
+                  <c:v>118.127007796518</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17.46008327600498</c:v>
+                  <c:v>11.963608624228982</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>16.511184356312015</c:v>
+                  <c:v>82.83937504418202</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>16.453839612070993</c:v>
+                  <c:v>121.73999194762001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>16.426563734952992</c:v>
+                  <c:v>11.460603049507995</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>58.946873841969023</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>15.237217073861075</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>14.692884363979999</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>11.963608624228982</c:v>
+                  <c:v>47.696601854261985</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11.460603049507995</c:v>
+                  <c:v>168.97532321456703</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.7206353537310406</c:v>
+                  <c:v>35.22025322027298</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.3231586385329877</c:v>
+                  <c:v>91.79327357970601</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.1824545914699911</c:v>
+                  <c:v>100.01215666767791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3475,11 +3543,11 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="31750" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="dash"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -3494,103 +3562,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>620.08851291183203</c:v>
+                  <c:v>119.294941764656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>501.19809131285399</c:v>
+                  <c:v>148.97036544308099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>451.531945540658</c:v>
+                  <c:v>149.26188632848701</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>161.036347914581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>215.702717299406</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>228.95067633872799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>237.799859554215</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>241.05421702855401</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>272.375369907991</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>838.39826506611496</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>764.40631068908101</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>273.376205780406</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>281.83863884012999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>293.61879562587001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>299.21131044704998</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>303.56178346553901</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>486.864857221916</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>119.294941764656</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>293.61879562587001</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
+                  <c:v>303.65469990887999</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>329.366374829346</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>532.03061407634402</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>237.799859554215</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>609.01624296754301</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>281.83863884012999</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>329.56875386027599</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>623.63346122808503</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>331.211512959902</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>303.65469990887999</c:v>
+                  <c:v>393.80879736490698</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>161.036347914581</c:v>
+                  <c:v>414.46032505437802</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>418.756733795054</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>414.46032505437802</c:v>
+                  <c:v>451.531945540658</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>149.26188632848701</c:v>
+                  <c:v>473.563338397255</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>273.376205780406</c:v>
+                  <c:v>486.864857221916</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>241.05421702855401</c:v>
+                  <c:v>501.19809131285399</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>215.702717299406</c:v>
+                  <c:v>531.75973386455405</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>532.03061407634402</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>535.87594210582597</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>148.97036544308099</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>473.563338397255</c:v>
+                  <c:v>609.01624296754301</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>531.75973386455405</c:v>
+                  <c:v>620.08851291183203</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>299.21131044704998</c:v>
+                  <c:v>623.63346122808503</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>228.95067633872799</c:v>
+                  <c:v>764.40631068908101</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>393.80879736490698</c:v>
+                  <c:v>838.39826506611496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3602,103 +3670,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>0.27250194076501622</c:v>
+                  <c:v>0.68569097023951153</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24289795603317335</c:v>
+                  <c:v>9.8629578576108795E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26161384363419599</c:v>
+                  <c:v>0.11697616655855353</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.14814388772429998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6153717211416089E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7792300931026764E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23949295753685632</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8257837655343559E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.41768369324938476</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.11928955585301824</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.12008440052903034</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>6.0397298693855232E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14908581143681771</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2752493024450281</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9145406771895043E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.27575761457593978</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.17014860246202432</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.68569097023951153</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.2752493024450281</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
+                  <c:v>9.7342662359340595E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.23441927732676598</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.11079601865450248</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.23949295753685632</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.8317454427572528E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.14908581143681771</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>0.11340141622295269</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.6475887536431721E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>9.7046868858829238E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.7342662359340595E-2</c:v>
+                  <c:v>4.6330755608013229E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.14814388772429998</c:v>
+                  <c:v>4.484252412399807E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>5.4001117762353022E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.484252412399807E-2</c:v>
+                  <c:v>0.26161384363419599</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.11697616655855353</c:v>
+                  <c:v>2.526295355700265E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.0397298693855232E-2</c:v>
+                  <c:v>0.17014860246202432</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.8257837655343559E-2</c:v>
+                  <c:v>0.24289795603317335</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.6153717211416089E-2</c:v>
+                  <c:v>2.1552220523013792E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>0.11079601865450248</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>2.8434224932702791E-2</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.8629578576108795E-2</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.526295355700265E-2</c:v>
+                  <c:v>7.8317454427572528E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.1552220523013792E-2</c:v>
+                  <c:v>0.27250194076501622</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9145406771895043E-2</c:v>
+                  <c:v>5.6475887536431721E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.7792300931026764E-3</c:v>
+                  <c:v>0.12008440052903034</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.6330755608013229E-4</c:v>
+                  <c:v>0.11928955585301824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5192,103 +5260,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>620.08851291183203</c:v>
+                  <c:v>119.294941764656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>501.19809131285399</c:v>
+                  <c:v>148.97036544308099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>451.531945540658</c:v>
+                  <c:v>149.26188632848701</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>161.036347914581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>215.702717299406</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>228.95067633872799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>237.799859554215</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>241.05421702855401</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>272.375369907991</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>838.39826506611496</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>764.40631068908101</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>273.376205780406</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>281.83863884012999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>293.61879562587001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>299.21131044704998</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>303.56178346553901</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>486.864857221916</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>119.294941764656</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>293.61879562587001</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
+                  <c:v>303.65469990887999</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>329.366374829346</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>532.03061407634402</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>237.799859554215</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>609.01624296754301</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>281.83863884012999</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>329.56875386027599</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>623.63346122808503</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>331.211512959902</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>303.65469990887999</c:v>
+                  <c:v>393.80879736490698</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>161.036347914581</c:v>
+                  <c:v>414.46032505437802</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>418.756733795054</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>414.46032505437802</c:v>
+                  <c:v>451.531945540658</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>149.26188632848701</c:v>
+                  <c:v>473.563338397255</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>273.376205780406</c:v>
+                  <c:v>486.864857221916</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>241.05421702855401</c:v>
+                  <c:v>501.19809131285399</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>215.702717299406</c:v>
+                  <c:v>531.75973386455405</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>532.03061407634402</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>535.87594210582597</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>148.97036544308099</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>473.563338397255</c:v>
+                  <c:v>609.01624296754301</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>531.75973386455405</c:v>
+                  <c:v>620.08851291183203</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>299.21131044704998</c:v>
+                  <c:v>623.63346122808503</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>228.95067633872799</c:v>
+                  <c:v>764.40631068908101</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>393.80879736490698</c:v>
+                  <c:v>838.39826506611496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5300,103 +5368,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>168.97532321456703</c:v>
+                  <c:v>81.799464363273003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>121.73999194762001</c:v>
+                  <c:v>14.692884363979999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>118.127007796518</c:v>
+                  <c:v>17.46008327600498</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>23.856550644988999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.426563734952992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3231586385329877</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.951391666488007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.453839612070993</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>113.76675045333701</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>100.01215666767791</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>91.79327357970601</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>16.511184356312015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.018142165728989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80.818368680769993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.7206353537310406</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>83.709473284875003</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>82.83937504418202</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>81.799464363273003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>80.818368680769993</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
+                  <c:v>29.558556927056998</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>77.209827563232011</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>58.946873841969023</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>56.951391666488007</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>47.696601854261985</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42.018142165728989</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>37.373563430589002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>35.22025322027298</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>32.143040262754027</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29.558556927056998</c:v>
+                  <c:v>0.1824545914699911</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23.856550644988999</c:v>
+                  <c:v>18.585447124691029</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>22.613331695445027</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18.585447124691029</c:v>
+                  <c:v>118.127007796518</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17.46008327600498</c:v>
+                  <c:v>11.963608624228982</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>16.511184356312015</c:v>
+                  <c:v>82.83937504418202</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>16.453839612070993</c:v>
+                  <c:v>121.73999194762001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>16.426563734952992</c:v>
+                  <c:v>11.460603049507995</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>58.946873841969023</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>15.237217073861075</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>14.692884363979999</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>11.963608624228982</c:v>
+                  <c:v>47.696601854261985</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11.460603049507995</c:v>
+                  <c:v>168.97532321456703</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.7206353537310406</c:v>
+                  <c:v>35.22025322027298</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.3231586385329877</c:v>
+                  <c:v>91.79327357970601</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.1824545914699911</c:v>
+                  <c:v>100.01215666767791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5479,103 +5547,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>620.08851291183203</c:v>
+                  <c:v>119.294941764656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>501.19809131285399</c:v>
+                  <c:v>148.97036544308099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>451.531945540658</c:v>
+                  <c:v>149.26188632848701</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>161.036347914581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>215.702717299406</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>228.95067633872799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>237.799859554215</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>241.05421702855401</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>272.375369907991</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>838.39826506611496</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>764.40631068908101</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>273.376205780406</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>281.83863884012999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>293.61879562587001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>299.21131044704998</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>303.56178346553901</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>486.864857221916</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>119.294941764656</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>293.61879562587001</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
+                  <c:v>303.65469990887999</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>329.366374829346</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>532.03061407634402</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>237.799859554215</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>609.01624296754301</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>281.83863884012999</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>329.56875386027599</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>623.63346122808503</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>331.211512959902</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>303.65469990887999</c:v>
+                  <c:v>393.80879736490698</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>161.036347914581</c:v>
+                  <c:v>414.46032505437802</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>418.756733795054</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>414.46032505437802</c:v>
+                  <c:v>451.531945540658</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>149.26188632848701</c:v>
+                  <c:v>473.563338397255</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>273.376205780406</c:v>
+                  <c:v>486.864857221916</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>241.05421702855401</c:v>
+                  <c:v>501.19809131285399</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>215.702717299406</c:v>
+                  <c:v>531.75973386455405</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>532.03061407634402</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>535.87594210582597</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>148.97036544308099</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>473.563338397255</c:v>
+                  <c:v>609.01624296754301</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>531.75973386455405</c:v>
+                  <c:v>620.08851291183203</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>299.21131044704998</c:v>
+                  <c:v>623.63346122808503</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>228.95067633872799</c:v>
+                  <c:v>764.40631068908101</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>393.80879736490698</c:v>
+                  <c:v>838.39826506611496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5587,103 +5655,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>0.27250194076501622</c:v>
+                  <c:v>0.68569097023951153</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24289795603317335</c:v>
+                  <c:v>9.8629578576108795E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26161384363419599</c:v>
+                  <c:v>0.11697616655855353</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.14814388772429998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6153717211416089E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7792300931026764E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23949295753685632</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8257837655343559E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.41768369324938476</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.11928955585301824</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.12008440052903034</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>6.0397298693855232E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14908581143681771</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2752493024450281</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9145406771895043E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.27575761457593978</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.17014860246202432</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.68569097023951153</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.2752493024450281</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
+                  <c:v>9.7342662359340595E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.23441927732676598</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.11079601865450248</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.23949295753685632</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.8317454427572528E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.14908581143681771</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>0.11340141622295269</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.6475887536431721E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>9.7046868858829238E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.7342662359340595E-2</c:v>
+                  <c:v>4.6330755608013229E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.14814388772429998</c:v>
+                  <c:v>4.484252412399807E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>5.4001117762353022E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.484252412399807E-2</c:v>
+                  <c:v>0.26161384363419599</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.11697616655855353</c:v>
+                  <c:v>2.526295355700265E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.0397298693855232E-2</c:v>
+                  <c:v>0.17014860246202432</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.8257837655343559E-2</c:v>
+                  <c:v>0.24289795603317335</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.6153717211416089E-2</c:v>
+                  <c:v>2.1552220523013792E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>0.11079601865450248</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>2.8434224932702791E-2</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.8629578576108795E-2</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.526295355700265E-2</c:v>
+                  <c:v>7.8317454427572528E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.1552220523013792E-2</c:v>
+                  <c:v>0.27250194076501622</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9145406771895043E-2</c:v>
+                  <c:v>5.6475887536431721E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.7792300931026764E-3</c:v>
+                  <c:v>0.12008440052903034</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.6330755608013229E-4</c:v>
+                  <c:v>0.11928955585301824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9292,9 +9360,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>420278</xdr:colOff>
+      <xdr:colOff>375745</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>119738</xdr:rowOff>
+      <xdr:rowOff>20777</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9323,16 +9391,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>350519</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>426719</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>69669</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>443138</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>165458</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>474804</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>153583</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9405,10 +9473,10 @@
       <xdr:rowOff>163284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>43543</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>174171</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>287572</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>62142</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9785,8 +9853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA873F37-3086-4353-BE9B-F74749E64FBF}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X45" sqref="X45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12543,7 +12611,7 @@
         <filter val="False"/>
       </filters>
     </filterColumn>
-    <sortState ref="A2:D101">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D101">
       <sortCondition ref="C1:C101"/>
     </sortState>
   </autoFilter>
@@ -14886,7 +14954,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{D87CAB7D-7E87-4C41-902D-69DBEC1B5926}">
-    <sortState ref="A2:G101">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G101">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -19866,7 +19934,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{E3D5E7A3-63C6-43CA-9C77-09B051BC7A50}">
-    <sortState ref="A2:G101">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G101">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -19877,15 +19945,15 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C43F930-C379-4792-8FD8-503A700A331E}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H1" activeCellId="2" sqref="D1:D1048576 F1:F1048576 H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>123</v>
       </c>
@@ -19913,136 +19981,150 @@
       <c r="I1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q1">
+        <f>CORREL(A7:A100,C7:C100)</f>
+        <v>0.68345307302895553</v>
+      </c>
+      <c r="R1" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" t="e">
+        <f>CORREL(A7:A100,E7:E100)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="C2">
-        <v>451.113189697265</v>
+        <v>201.09440612792901</v>
       </c>
       <c r="D2">
-        <v>620.08851291183203</v>
+        <v>119.294941764656</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2">
         <f>ABS(C2-D2)</f>
-        <v>168.97532321456703</v>
+        <v>81.799464363273003</v>
       </c>
       <c r="G2">
         <f>F2*F2</f>
-        <v>28552.659855467395</v>
+        <v>6691.1523701183696</v>
       </c>
       <c r="H2">
         <f>F2/D2</f>
-        <v>0.27250194076501622</v>
+        <v>0.68569097023951153</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C3">
-        <v>379.45809936523398</v>
+        <v>134.27748107910099</v>
       </c>
       <c r="D3">
-        <v>501.19809131285399</v>
+        <v>148.97036544308099</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3">
         <f>ABS(C3-D3)</f>
-        <v>121.73999194762001</v>
+        <v>14.692884363979999</v>
       </c>
       <c r="G3">
         <f>F3*F3</f>
-        <v>14820.625639406586</v>
+        <v>215.88085093328795</v>
       </c>
       <c r="H3">
         <f>F3/D3</f>
-        <v>0.24289795603317335</v>
+        <v>9.8629578576108795E-2</v>
       </c>
       <c r="I3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="B4">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C4">
-        <v>333.40493774414</v>
+        <v>166.72196960449199</v>
       </c>
       <c r="D4">
-        <v>451.531945540658</v>
+        <v>149.26188632848701</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4">
         <f>ABS(C4-D4)</f>
-        <v>118.127007796518</v>
+        <v>17.46008327600498</v>
       </c>
       <c r="G4">
         <f>F4*F4</f>
-        <v>13953.989970958624</v>
+        <v>304.85450800502878</v>
       </c>
       <c r="H4">
         <f>F4/D4</f>
-        <v>0.26161384363419599</v>
+        <v>0.11697616655855353</v>
       </c>
       <c r="I4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C5">
-        <v>386.14212036132801</v>
+        <v>184.89289855957</v>
       </c>
       <c r="D5">
-        <v>272.375369907991</v>
+        <v>161.036347914581</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5">
         <f>ABS(C5-D5)</f>
-        <v>113.76675045333701</v>
+        <v>23.856550644988999</v>
       </c>
       <c r="G5">
         <f>F5*F5</f>
-        <v>12942.873508711857</v>
+        <v>569.13500867692505</v>
       </c>
       <c r="H5">
         <f>F5/D5</f>
-        <v>0.41768369324938476</v>
+        <v>0.14814388772429998</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -20074,7 +20156,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -20106,7 +20188,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -20138,39 +20220,39 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C9">
-        <v>738.38610839843705</v>
+        <v>199.27615356445301</v>
       </c>
       <c r="D9">
-        <v>838.39826506611496</v>
+        <v>215.702717299406</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9">
         <f>ABS(C9-D9)</f>
-        <v>100.01215666767791</v>
+        <v>16.426563734952992</v>
       </c>
       <c r="G9">
         <f>F9*F9</f>
-        <v>10002.431481320153</v>
+        <v>269.83199613847279</v>
       </c>
       <c r="H9">
         <f>F9/D9</f>
-        <v>0.11928955585301824</v>
+        <v>7.6153717211416089E-2</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -20202,135 +20284,135 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C11">
-        <v>672.613037109375</v>
+        <v>227.627517700195</v>
       </c>
       <c r="D11">
-        <v>764.40631068908101</v>
+        <v>228.95067633872799</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
       </c>
       <c r="F11">
         <f>ABS(C11-D11)</f>
-        <v>91.79327357970601</v>
+        <v>1.3231586385329877</v>
       </c>
       <c r="G11">
         <f>F11*F11</f>
-        <v>8426.0050744787532</v>
+        <v>1.7507487827244694</v>
       </c>
       <c r="H11">
         <f>F11/D11</f>
-        <v>0.12008440052903034</v>
+        <v>5.7792300931026764E-3</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="B12">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C12">
-        <v>219.85231018066401</v>
+        <v>294.75125122070301</v>
       </c>
       <c r="D12">
-        <v>303.56178346553901</v>
+        <v>237.799859554215</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12">
         <f>ABS(C12-D12)</f>
-        <v>83.709473284875003</v>
+        <v>56.951391666488007</v>
       </c>
       <c r="G12">
         <f>F12*F12</f>
-        <v>7007.275917631202</v>
+        <v>3243.4610127497194</v>
       </c>
       <c r="H12">
         <f>F12/D12</f>
-        <v>0.27575761457593978</v>
+        <v>0.23949295753685632</v>
       </c>
       <c r="I12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>404.02548217773398</v>
+        <v>257.508056640625</v>
       </c>
       <c r="D13">
-        <v>486.864857221916</v>
+        <v>241.05421702855401</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
       </c>
       <c r="F13">
         <f>ABS(C13-D13)</f>
-        <v>82.83937504418202</v>
+        <v>16.453839612070993</v>
       </c>
       <c r="G13">
         <f>F13*F13</f>
-        <v>6862.3620577106467</v>
+        <v>270.72883797975652</v>
       </c>
       <c r="H13">
         <f>F13/D13</f>
-        <v>0.17014860246202432</v>
+        <v>6.8257837655343559E-2</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="C14">
-        <v>201.09440612792901</v>
+        <v>386.14212036132801</v>
       </c>
       <c r="D14">
-        <v>119.294941764656</v>
+        <v>272.375369907991</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
       </c>
       <c r="F14">
         <f>ABS(C14-D14)</f>
-        <v>81.799464363273003</v>
+        <v>113.76675045333701</v>
       </c>
       <c r="G14">
         <f>F14*F14</f>
-        <v>6691.1523701183696</v>
+        <v>12942.873508711857</v>
       </c>
       <c r="H14">
         <f>F14/D14</f>
-        <v>0.68569097023951153</v>
+        <v>0.41768369324938476</v>
       </c>
       <c r="I14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -20362,7 +20444,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -20492,34 +20574,34 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>374.43716430664</v>
+        <v>289.88739013671801</v>
       </c>
       <c r="D20">
-        <v>293.61879562587001</v>
+        <v>273.376205780406</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
       </c>
       <c r="F20">
         <f>ABS(C20-D20)</f>
-        <v>80.818368680769993</v>
+        <v>16.511184356312015</v>
       </c>
       <c r="G20">
         <f>F20*F20</f>
-        <v>6531.6087162208642</v>
+        <v>272.61920884812258</v>
       </c>
       <c r="H20">
         <f>F20/D20</f>
-        <v>0.2752493024450281</v>
+        <v>6.0397298693855232E-2</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -20556,34 +20638,34 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="C22">
-        <v>406.57620239257801</v>
+        <v>323.85678100585898</v>
       </c>
       <c r="D22">
-        <v>329.366374829346</v>
+        <v>281.83863884012999</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
       </c>
       <c r="F22">
         <f>ABS(C22-D22)</f>
-        <v>77.209827563232011</v>
+        <v>42.018142165728989</v>
       </c>
       <c r="G22">
         <f>F22*F22</f>
-        <v>5961.3574723440215</v>
+        <v>1765.5242710594125</v>
       </c>
       <c r="H22">
         <f>F22/D22</f>
-        <v>0.23441927732676598</v>
+        <v>0.14908581143681771</v>
       </c>
       <c r="I22" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -20812,66 +20894,66 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B30">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>473.083740234375</v>
+        <v>374.43716430664</v>
       </c>
       <c r="D30">
-        <v>532.03061407634402</v>
+        <v>293.61879562587001</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
       </c>
       <c r="F30">
         <f>ABS(C30-D30)</f>
-        <v>58.946873841969023</v>
+        <v>80.818368680769993</v>
       </c>
       <c r="G30">
         <f>F30*F30</f>
-        <v>3474.7339357410119</v>
+        <v>6531.6087162208642</v>
       </c>
       <c r="H30">
         <f>F30/D30</f>
-        <v>0.11079601865450248</v>
+        <v>0.2752493024450281</v>
       </c>
       <c r="I30" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B31">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C31">
-        <v>294.75125122070301</v>
+        <v>307.93194580078102</v>
       </c>
       <c r="D31">
-        <v>237.799859554215</v>
+        <v>299.21131044704998</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
       </c>
       <c r="F31">
         <f>ABS(C31-D31)</f>
-        <v>56.951391666488007</v>
+        <v>8.7206353537310406</v>
       </c>
       <c r="G31">
         <f>F31*F31</f>
-        <v>3243.4610127497194</v>
+        <v>76.049480972743709</v>
       </c>
       <c r="H31">
         <f>F31/D31</f>
-        <v>0.23949295753685632</v>
+        <v>2.9145406771895043E-2</v>
       </c>
       <c r="I31" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -20908,34 +20990,34 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="B33">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C33">
-        <v>561.31964111328102</v>
+        <v>219.85231018066401</v>
       </c>
       <c r="D33">
-        <v>609.01624296754301</v>
+        <v>303.56178346553901</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
       </c>
       <c r="F33">
         <f>ABS(C33-D33)</f>
-        <v>47.696601854261985</v>
+        <v>83.709473284875003</v>
       </c>
       <c r="G33">
         <f>F33*F33</f>
-        <v>2274.9658284439879</v>
+        <v>7007.275917631202</v>
       </c>
       <c r="H33">
         <f>F33/D33</f>
-        <v>7.8317454427572528E-2</v>
+        <v>0.27575761457593978</v>
       </c>
       <c r="I33" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -21068,34 +21150,34 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B38">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>323.85678100585898</v>
+        <v>333.21325683593699</v>
       </c>
       <c r="D38">
-        <v>281.83863884012999</v>
+        <v>303.65469990887999</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
       </c>
       <c r="F38">
         <f>ABS(C38-D38)</f>
-        <v>42.018142165728989</v>
+        <v>29.558556927056998</v>
       </c>
       <c r="G38">
         <f>F38*F38</f>
-        <v>1765.5242710594125</v>
+        <v>873.70828761006919</v>
       </c>
       <c r="H38">
         <f>F38/D38</f>
-        <v>0.14908581143681771</v>
+        <v>9.7342662359340595E-2</v>
       </c>
       <c r="I38" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -21132,66 +21214,66 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B40">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="C40">
-        <v>292.19519042968699</v>
+        <v>406.57620239257801</v>
       </c>
       <c r="D40">
-        <v>329.56875386027599</v>
+        <v>329.366374829346</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
       </c>
       <c r="F40">
         <f>ABS(C40-D40)</f>
-        <v>37.373563430589002</v>
+        <v>77.209827563232011</v>
       </c>
       <c r="G40">
         <f>F40*F40</f>
-        <v>1396.7832435002595</v>
+        <v>5961.3574723440215</v>
       </c>
       <c r="H40">
         <f>F40/D40</f>
-        <v>0.11340141622295269</v>
+        <v>0.23441927732676598</v>
       </c>
       <c r="I40" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="C41">
-        <v>588.41320800781205</v>
+        <v>292.19519042968699</v>
       </c>
       <c r="D41">
-        <v>623.63346122808503</v>
+        <v>329.56875386027599</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
       </c>
       <c r="F41">
         <f>ABS(C41-D41)</f>
-        <v>35.22025322027298</v>
+        <v>37.373563430589002</v>
       </c>
       <c r="G41">
         <f>F41*F41</f>
-        <v>1240.4662369001492</v>
+        <v>1396.7832435002595</v>
       </c>
       <c r="H41">
         <f>F41/D41</f>
-        <v>5.6475887536431721E-2</v>
+        <v>0.11340141622295269</v>
       </c>
       <c r="I41" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -21292,34 +21374,34 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C45">
-        <v>333.21325683593699</v>
+        <v>393.62634277343699</v>
       </c>
       <c r="D45">
-        <v>303.65469990887999</v>
+        <v>393.80879736490698</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
       </c>
       <c r="F45">
         <f>ABS(C45-D45)</f>
-        <v>29.558556927056998</v>
+        <v>0.1824545914699911</v>
       </c>
       <c r="G45">
         <f>F45*F45</f>
-        <v>873.70828761006919</v>
+        <v>3.3289677948481353E-2</v>
       </c>
       <c r="H45">
         <f>F45/D45</f>
-        <v>9.7342662359340595E-2</v>
+        <v>4.6330755608013229E-4</v>
       </c>
       <c r="I45" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -21356,34 +21438,34 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C47">
-        <v>184.89289855957</v>
+        <v>395.87487792968699</v>
       </c>
       <c r="D47">
-        <v>161.036347914581</v>
+        <v>414.46032505437802</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
       </c>
       <c r="F47">
         <f>ABS(C47-D47)</f>
-        <v>23.856550644988999</v>
+        <v>18.585447124691029</v>
       </c>
       <c r="G47">
         <f>F47*F47</f>
-        <v>569.13500867692505</v>
+        <v>345.41884482468606</v>
       </c>
       <c r="H47">
         <f>F47/D47</f>
-        <v>0.14814388772429998</v>
+        <v>4.484252412399807E-2</v>
       </c>
       <c r="I47" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -21452,34 +21534,34 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="B50">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="C50">
-        <v>395.87487792968699</v>
+        <v>333.40493774414</v>
       </c>
       <c r="D50">
-        <v>414.46032505437802</v>
+        <v>451.531945540658</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
       </c>
       <c r="F50">
         <f>ABS(C50-D50)</f>
-        <v>18.585447124691029</v>
+        <v>118.127007796518</v>
       </c>
       <c r="G50">
         <f>F50*F50</f>
-        <v>345.41884482468606</v>
+        <v>13953.989970958624</v>
       </c>
       <c r="H50">
         <f>F50/D50</f>
-        <v>4.484252412399807E-2</v>
+        <v>0.26161384363419599</v>
       </c>
       <c r="I50" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -21676,34 +21758,34 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B57">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="C57">
-        <v>166.72196960449199</v>
+        <v>485.52694702148398</v>
       </c>
       <c r="D57">
-        <v>149.26188632848701</v>
+        <v>473.563338397255</v>
       </c>
       <c r="E57" t="s">
         <v>4</v>
       </c>
       <c r="F57">
         <f>ABS(C57-D57)</f>
-        <v>17.46008327600498</v>
+        <v>11.963608624228982</v>
       </c>
       <c r="G57">
         <f>F57*F57</f>
-        <v>304.85450800502878</v>
+        <v>143.12793131372607</v>
       </c>
       <c r="H57">
         <f>F57/D57</f>
-        <v>0.11697616655855353</v>
+        <v>2.526295355700265E-2</v>
       </c>
       <c r="I57" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -21804,34 +21886,34 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B61">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C61">
-        <v>289.88739013671801</v>
+        <v>404.02548217773398</v>
       </c>
       <c r="D61">
-        <v>273.376205780406</v>
+        <v>486.864857221916</v>
       </c>
       <c r="E61" t="s">
         <v>4</v>
       </c>
       <c r="F61">
         <f>ABS(C61-D61)</f>
-        <v>16.511184356312015</v>
+        <v>82.83937504418202</v>
       </c>
       <c r="G61">
         <f>F61*F61</f>
-        <v>272.61920884812258</v>
+        <v>6862.3620577106467</v>
       </c>
       <c r="H61">
         <f>F61/D61</f>
-        <v>6.0397298693855232E-2</v>
+        <v>0.17014860246202432</v>
       </c>
       <c r="I61" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -21932,34 +22014,34 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C65">
-        <v>257.508056640625</v>
+        <v>379.45809936523398</v>
       </c>
       <c r="D65">
-        <v>241.05421702855401</v>
+        <v>501.19809131285399</v>
       </c>
       <c r="E65" t="s">
         <v>4</v>
       </c>
       <c r="F65">
         <f>ABS(C65-D65)</f>
-        <v>16.453839612070993</v>
+        <v>121.73999194762001</v>
       </c>
       <c r="G65">
         <f>F65*F65</f>
-        <v>270.72883797975652</v>
+        <v>14820.625639406586</v>
       </c>
       <c r="H65">
         <f>F65/D65</f>
-        <v>6.8257837655343559E-2</v>
+        <v>0.24289795603317335</v>
       </c>
       <c r="I65" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -22060,34 +22142,34 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="B69">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C69">
-        <v>199.27615356445301</v>
+        <v>543.22033691406205</v>
       </c>
       <c r="D69">
-        <v>215.702717299406</v>
+        <v>531.75973386455405</v>
       </c>
       <c r="E69" t="s">
         <v>4</v>
       </c>
       <c r="F69">
         <f>ABS(C69-D69)</f>
-        <v>16.426563734952992</v>
+        <v>11.460603049507995</v>
       </c>
       <c r="G69">
         <f>F69*F69</f>
-        <v>269.83199613847279</v>
+        <v>131.34542225839195</v>
       </c>
       <c r="H69">
         <f>F69/D69</f>
-        <v>7.6153717211416089E-2</v>
+        <v>2.1552220523013792E-2</v>
       </c>
       <c r="I69" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -22188,34 +22270,34 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B73">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C73">
-        <v>551.11315917968705</v>
+        <v>473.083740234375</v>
       </c>
       <c r="D73">
-        <v>535.87594210582597</v>
+        <v>532.03061407634402</v>
       </c>
       <c r="E73" t="s">
         <v>4</v>
       </c>
       <c r="F73">
         <f>ABS(C73-D73)</f>
-        <v>15.237217073861075</v>
+        <v>58.946873841969023</v>
       </c>
       <c r="G73">
         <f>F73*F73</f>
-        <v>232.17278415596346</v>
+        <v>3474.7339357410119</v>
       </c>
       <c r="H73">
         <f>F73/D73</f>
-        <v>2.8434224932702791E-2</v>
+        <v>0.11079601865450248</v>
       </c>
       <c r="I73" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -22252,34 +22334,34 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="B75">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C75">
-        <v>134.27748107910099</v>
+        <v>551.11315917968705</v>
       </c>
       <c r="D75">
-        <v>148.97036544308099</v>
+        <v>535.87594210582597</v>
       </c>
       <c r="E75" t="s">
         <v>4</v>
       </c>
       <c r="F75">
         <f>ABS(C75-D75)</f>
-        <v>14.692884363979999</v>
+        <v>15.237217073861075</v>
       </c>
       <c r="G75">
         <f>F75*F75</f>
-        <v>215.88085093328795</v>
+        <v>232.17278415596346</v>
       </c>
       <c r="H75">
         <f>F75/D75</f>
-        <v>9.8629578576108795E-2</v>
+        <v>2.8434224932702791E-2</v>
       </c>
       <c r="I75" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -22380,34 +22462,34 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B79">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="C79">
-        <v>485.52694702148398</v>
+        <v>561.31964111328102</v>
       </c>
       <c r="D79">
-        <v>473.563338397255</v>
+        <v>609.01624296754301</v>
       </c>
       <c r="E79" t="s">
         <v>4</v>
       </c>
       <c r="F79">
         <f>ABS(C79-D79)</f>
-        <v>11.963608624228982</v>
+        <v>47.696601854261985</v>
       </c>
       <c r="G79">
         <f>F79*F79</f>
-        <v>143.12793131372607</v>
+        <v>2274.9658284439879</v>
       </c>
       <c r="H79">
         <f>F79/D79</f>
-        <v>2.526295355700265E-2</v>
+        <v>7.8317454427572528E-2</v>
       </c>
       <c r="I79" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -22572,66 +22654,66 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B85">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="C85">
-        <v>543.22033691406205</v>
+        <v>451.113189697265</v>
       </c>
       <c r="D85">
-        <v>531.75973386455405</v>
+        <v>620.08851291183203</v>
       </c>
       <c r="E85" t="s">
         <v>4</v>
       </c>
       <c r="F85">
         <f>ABS(C85-D85)</f>
-        <v>11.460603049507995</v>
+        <v>168.97532321456703</v>
       </c>
       <c r="G85">
         <f>F85*F85</f>
-        <v>131.34542225839195</v>
+        <v>28552.659855467395</v>
       </c>
       <c r="H85">
         <f>F85/D85</f>
-        <v>2.1552220523013792E-2</v>
+        <v>0.27250194076501622</v>
       </c>
       <c r="I85" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="B86">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C86">
-        <v>307.93194580078102</v>
+        <v>588.41320800781205</v>
       </c>
       <c r="D86">
-        <v>299.21131044704998</v>
+        <v>623.63346122808503</v>
       </c>
       <c r="E86" t="s">
         <v>4</v>
       </c>
       <c r="F86">
         <f>ABS(C86-D86)</f>
-        <v>8.7206353537310406</v>
+        <v>35.22025322027298</v>
       </c>
       <c r="G86">
         <f>F86*F86</f>
-        <v>76.049480972743709</v>
+        <v>1240.4662369001492</v>
       </c>
       <c r="H86">
         <f>F86/D86</f>
-        <v>2.9145406771895043E-2</v>
+        <v>5.6475887536431721E-2</v>
       </c>
       <c r="I86" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -22828,34 +22910,34 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="B93">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="C93">
-        <v>227.627517700195</v>
+        <v>672.613037109375</v>
       </c>
       <c r="D93">
-        <v>228.95067633872799</v>
+        <v>764.40631068908101</v>
       </c>
       <c r="E93" t="s">
         <v>4</v>
       </c>
       <c r="F93">
         <f>ABS(C93-D93)</f>
-        <v>1.3231586385329877</v>
+        <v>91.79327357970601</v>
       </c>
       <c r="G93">
         <f>F93*F93</f>
-        <v>1.7507487827244694</v>
+        <v>8426.0050744787532</v>
       </c>
       <c r="H93">
         <f>F93/D93</f>
-        <v>5.7792300931026764E-3</v>
+        <v>0.12008440052903034</v>
       </c>
       <c r="I93" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -22892,34 +22974,34 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="B95">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C95">
-        <v>393.62634277343699</v>
+        <v>738.38610839843705</v>
       </c>
       <c r="D95">
-        <v>393.80879736490698</v>
+        <v>838.39826506611496</v>
       </c>
       <c r="E95" t="s">
         <v>4</v>
       </c>
       <c r="F95">
         <f>ABS(C95-D95)</f>
-        <v>0.1824545914699911</v>
+        <v>100.01215666767791</v>
       </c>
       <c r="G95">
         <f>F95*F95</f>
-        <v>3.3289677948481353E-2</v>
+        <v>10002.431481320153</v>
       </c>
       <c r="H95">
         <f>F95/D95</f>
-        <v>4.6330755608013229E-4</v>
+        <v>0.11928955585301824</v>
       </c>
       <c r="I95" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -22939,15 +23021,15 @@
         <v>3</v>
       </c>
       <c r="F96">
-        <f t="shared" ref="F66:F101" si="0">ABS(C96-D96)</f>
+        <f t="shared" ref="F96:F101" si="0">ABS(C96-D96)</f>
         <v>11.797709418594025</v>
       </c>
       <c r="G96">
-        <f t="shared" ref="G66:G97" si="1">F96*F96</f>
+        <f t="shared" ref="G96:G97" si="1">F96*F96</f>
         <v>139.18594752558215</v>
       </c>
       <c r="H96">
-        <f t="shared" ref="H66:H101" si="2">F96/D96</f>
+        <f t="shared" ref="H96:H101" si="2">F96/D96</f>
         <v>3.7823601737986094E-2</v>
       </c>
       <c r="I96" t="s">
@@ -23007,7 +23089,7 @@
         <v>23.692400392832951</v>
       </c>
       <c r="G98">
-        <f t="shared" ref="G98:G129" si="3">F98*F98</f>
+        <f t="shared" ref="G98:G101" si="3">F98*F98</f>
         <v>561.32983637431096</v>
       </c>
       <c r="H98">
@@ -23121,8 +23203,8 @@
         <filter val="False"/>
       </filters>
     </filterColumn>
-    <sortState ref="A2:I95">
-      <sortCondition descending="1" ref="F1:F101"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I95">
+      <sortCondition ref="D1:D101"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -23131,6 +23213,409 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85350088-2B2F-4195-8716-1228A3BF83CE}">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1">
+        <f>CORREL(A2:A35,B2:B35)</f>
+        <v>0.37736061688367295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>119.294941764656</v>
+      </c>
+      <c r="B2">
+        <v>81.799464363273003</v>
+      </c>
+      <c r="C2">
+        <v>0.68569097023951153</v>
+      </c>
+      <c r="F2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2">
+        <f>CORREL(A2:A35,C2:C35)</f>
+        <v>-0.2423132397423628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>148.97036544308099</v>
+      </c>
+      <c r="B3">
+        <v>14.692884363979999</v>
+      </c>
+      <c r="C3">
+        <v>9.8629578576108795E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>149.26188632848701</v>
+      </c>
+      <c r="B4">
+        <v>17.46008327600498</v>
+      </c>
+      <c r="C4">
+        <v>0.11697616655855353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>161.036347914581</v>
+      </c>
+      <c r="B5">
+        <v>23.856550644988999</v>
+      </c>
+      <c r="C5">
+        <v>0.14814388772429998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>215.702717299406</v>
+      </c>
+      <c r="B6">
+        <v>16.426563734952992</v>
+      </c>
+      <c r="C6">
+        <v>7.6153717211416089E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>228.95067633872799</v>
+      </c>
+      <c r="B7">
+        <v>1.3231586385329877</v>
+      </c>
+      <c r="C7">
+        <v>5.7792300931026764E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>237.799859554215</v>
+      </c>
+      <c r="B8">
+        <v>56.951391666488007</v>
+      </c>
+      <c r="C8">
+        <v>0.23949295753685632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>241.05421702855401</v>
+      </c>
+      <c r="B9">
+        <v>16.453839612070993</v>
+      </c>
+      <c r="C9">
+        <v>6.8257837655343559E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>272.375369907991</v>
+      </c>
+      <c r="B10">
+        <v>113.76675045333701</v>
+      </c>
+      <c r="C10">
+        <v>0.41768369324938476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>273.376205780406</v>
+      </c>
+      <c r="B11">
+        <v>16.511184356312015</v>
+      </c>
+      <c r="C11">
+        <v>6.0397298693855232E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>281.83863884012999</v>
+      </c>
+      <c r="B12">
+        <v>42.018142165728989</v>
+      </c>
+      <c r="C12">
+        <v>0.14908581143681771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>293.61879562587001</v>
+      </c>
+      <c r="B13">
+        <v>80.818368680769993</v>
+      </c>
+      <c r="C13">
+        <v>0.2752493024450281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>299.21131044704998</v>
+      </c>
+      <c r="B14">
+        <v>8.7206353537310406</v>
+      </c>
+      <c r="C14">
+        <v>2.9145406771895043E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>303.56178346553901</v>
+      </c>
+      <c r="B15">
+        <v>83.709473284875003</v>
+      </c>
+      <c r="C15">
+        <v>0.27575761457593978</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>303.65469990887999</v>
+      </c>
+      <c r="B16">
+        <v>29.558556927056998</v>
+      </c>
+      <c r="C16">
+        <v>9.7342662359340595E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>329.366374829346</v>
+      </c>
+      <c r="B17">
+        <v>77.209827563232011</v>
+      </c>
+      <c r="C17">
+        <v>0.23441927732676598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>329.56875386027599</v>
+      </c>
+      <c r="B18">
+        <v>37.373563430589002</v>
+      </c>
+      <c r="C18">
+        <v>0.11340141622295269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>331.211512959902</v>
+      </c>
+      <c r="B19">
+        <v>32.143040262754027</v>
+      </c>
+      <c r="C19">
+        <v>9.7046868858829238E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>393.80879736490698</v>
+      </c>
+      <c r="B20">
+        <v>0.1824545914699911</v>
+      </c>
+      <c r="C20">
+        <v>4.6330755608013229E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>414.46032505437802</v>
+      </c>
+      <c r="B21">
+        <v>18.585447124691029</v>
+      </c>
+      <c r="C21">
+        <v>4.484252412399807E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>418.756733795054</v>
+      </c>
+      <c r="B22">
+        <v>22.613331695445027</v>
+      </c>
+      <c r="C22">
+        <v>5.4001117762353022E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>451.531945540658</v>
+      </c>
+      <c r="B23">
+        <v>118.127007796518</v>
+      </c>
+      <c r="C23">
+        <v>0.26161384363419599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>473.563338397255</v>
+      </c>
+      <c r="B24">
+        <v>11.963608624228982</v>
+      </c>
+      <c r="C24">
+        <v>2.526295355700265E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>486.864857221916</v>
+      </c>
+      <c r="B25">
+        <v>82.83937504418202</v>
+      </c>
+      <c r="C25">
+        <v>0.17014860246202432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>501.19809131285399</v>
+      </c>
+      <c r="B26">
+        <v>121.73999194762001</v>
+      </c>
+      <c r="C26">
+        <v>0.24289795603317335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>531.75973386455405</v>
+      </c>
+      <c r="B27">
+        <v>11.460603049507995</v>
+      </c>
+      <c r="C27">
+        <v>2.1552220523013792E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>532.03061407634402</v>
+      </c>
+      <c r="B28">
+        <v>58.946873841969023</v>
+      </c>
+      <c r="C28">
+        <v>0.11079601865450248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>535.87594210582597</v>
+      </c>
+      <c r="B29">
+        <v>15.237217073861075</v>
+      </c>
+      <c r="C29">
+        <v>2.8434224932702791E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>609.01624296754301</v>
+      </c>
+      <c r="B30">
+        <v>47.696601854261985</v>
+      </c>
+      <c r="C30">
+        <v>7.8317454427572528E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>620.08851291183203</v>
+      </c>
+      <c r="B31">
+        <v>168.97532321456703</v>
+      </c>
+      <c r="C31">
+        <v>0.27250194076501622</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>623.63346122808503</v>
+      </c>
+      <c r="B32">
+        <v>35.22025322027298</v>
+      </c>
+      <c r="C32">
+        <v>5.6475887536431721E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>764.40631068908101</v>
+      </c>
+      <c r="B33">
+        <v>91.79327357970601</v>
+      </c>
+      <c r="C33">
+        <v>0.12008440052903034</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>838.39826506611496</v>
+      </c>
+      <c r="B34">
+        <v>100.01215666767791</v>
+      </c>
+      <c r="C34">
+        <v>0.11928955585301824</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF07B171-4A6B-4B4D-B1EC-2986CEA2FA36}">
   <dimension ref="A1:G101"/>
   <sheetViews>

--- a/remote-results/results/marsden/marsden-results.xlsx
+++ b/remote-results/results/marsden/marsden-results.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B873E2-86D2-45FA-A6C1-28A0864AAB95}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F003E7AB-CF6A-4F24-AA74-A087374869D0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -598,103 +597,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
+                  <c:v>148.97036544308099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>215.702717299406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>228.95067633872799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>329.56875386027599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>293.61879562587001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>303.65469990887999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>331.211512959902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>329.366374829346</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>299.21131044704998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>241.05421702855401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>272.375369907991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>418.756733795054</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>281.83863884012999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>273.376205780406</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>119.294941764656</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>148.97036544308099</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="15">
                   <c:v>149.26188632848701</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="16">
                   <c:v>161.036347914581</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>215.702717299406</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>228.95067633872799</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="17">
                   <c:v>237.799859554215</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>241.05421702855401</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>272.375369907991</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>273.376205780406</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>281.83863884012999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>293.61879562587001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>299.21131044704998</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
+                  <c:v>532.03061407634402</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>486.864857221916</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>393.80879736490698</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>414.46032505437802</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>620.08851291183203</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>531.75973386455405</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>623.63346122808503</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>609.01624296754301</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>501.19809131285399</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>473.563338397255</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>535.87594210582597</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>764.40631068908101</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>838.39826506611496</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>451.531945540658</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>303.56178346553901</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>303.65469990887999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>329.366374829346</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>329.56875386027599</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>331.211512959902</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>393.80879736490698</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>414.46032505437802</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>418.756733795054</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>451.531945540658</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>473.563338397255</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>486.864857221916</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>501.19809131285399</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>531.75973386455405</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>532.03061407634402</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>535.87594210582597</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>609.01624296754301</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>620.08851291183203</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>623.63346122808503</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>764.40631068908101</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>838.39826506611496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -706,103 +705,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
+                  <c:v>134.27748107910099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199.27615356445301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>227.627517700195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>292.19519042968699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>374.43716430664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>333.21325683593699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>363.35455322265602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>406.57620239257801</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>307.93194580078102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>257.508056640625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>386.14212036132801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>396.14340209960898</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>323.85678100585898</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>289.88739013671801</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>201.09440612792901</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>134.27748107910099</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="15">
                   <c:v>166.72196960449199</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="16">
                   <c:v>184.89289855957</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>199.27615356445301</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>227.627517700195</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="17">
                   <c:v>294.75125122070301</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>257.508056640625</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>386.14212036132801</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>289.88739013671801</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>323.85678100585898</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>374.43716430664</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>307.93194580078102</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
+                  <c:v>473.083740234375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>404.02548217773398</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>393.62634277343699</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>395.87487792968699</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>451.113189697265</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>543.22033691406205</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>588.41320800781205</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>561.31964111328102</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>379.45809936523398</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>485.52694702148398</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>551.11315917968705</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>672.613037109375</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>738.38610839843705</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>333.40493774414</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>219.85231018066401</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>333.21325683593699</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>406.57620239257801</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>292.19519042968699</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>363.35455322265602</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>393.62634277343699</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>395.87487792968699</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>396.14340209960898</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>333.40493774414</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>485.52694702148398</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>404.02548217773398</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>379.45809936523398</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>543.22033691406205</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>473.083740234375</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>551.11315917968705</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>561.31964111328102</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>451.113189697265</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>588.41320800781205</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>672.613037109375</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>738.38610839843705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -853,103 +852,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
+                  <c:v>148.97036544308099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>215.702717299406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>228.95067633872799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>329.56875386027599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>293.61879562587001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>303.65469990887999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>331.211512959902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>329.366374829346</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>299.21131044704998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>241.05421702855401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>272.375369907991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>418.756733795054</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>281.83863884012999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>273.376205780406</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>119.294941764656</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>148.97036544308099</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="15">
                   <c:v>149.26188632848701</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="16">
                   <c:v>161.036347914581</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>215.702717299406</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>228.95067633872799</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="17">
                   <c:v>237.799859554215</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>241.05421702855401</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>272.375369907991</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>273.376205780406</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>281.83863884012999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>293.61879562587001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>299.21131044704998</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
+                  <c:v>532.03061407634402</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>486.864857221916</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>393.80879736490698</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>414.46032505437802</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>620.08851291183203</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>531.75973386455405</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>623.63346122808503</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>609.01624296754301</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>501.19809131285399</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>473.563338397255</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>535.87594210582597</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>764.40631068908101</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>838.39826506611496</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>451.531945540658</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>303.56178346553901</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>303.65469990887999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>329.366374829346</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>329.56875386027599</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>331.211512959902</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>393.80879736490698</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>414.46032505437802</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>418.756733795054</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>451.531945540658</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>473.563338397255</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>486.864857221916</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>501.19809131285399</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>531.75973386455405</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>532.03061407634402</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>535.87594210582597</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>609.01624296754301</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>620.08851291183203</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>623.63346122808503</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>764.40631068908101</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>838.39826506611496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -961,103 +960,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
+                  <c:v>148.97036544308099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>215.702717299406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>228.95067633872799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>329.56875386027599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>293.61879562587001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>303.65469990887999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>331.211512959902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>329.366374829346</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>299.21131044704998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>241.05421702855401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>272.375369907991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>418.756733795054</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>281.83863884012999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>273.376205780406</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>119.294941764656</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>148.97036544308099</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="15">
                   <c:v>149.26188632848701</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="16">
                   <c:v>161.036347914581</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>215.702717299406</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>228.95067633872799</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="17">
                   <c:v>237.799859554215</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>241.05421702855401</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>272.375369907991</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>273.376205780406</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>281.83863884012999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>293.61879562587001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>299.21131044704998</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
+                  <c:v>532.03061407634402</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>486.864857221916</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>393.80879736490698</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>414.46032505437802</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>620.08851291183203</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>531.75973386455405</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>623.63346122808503</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>609.01624296754301</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>501.19809131285399</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>473.563338397255</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>535.87594210582597</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>764.40631068908101</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>838.39826506611496</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>451.531945540658</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>303.56178346553901</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>303.65469990887999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>329.366374829346</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>329.56875386027599</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>331.211512959902</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>393.80879736490698</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>414.46032505437802</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>418.756733795054</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>451.531945540658</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>473.563338397255</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>486.864857221916</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>501.19809131285399</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>531.75973386455405</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>532.03061407634402</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>535.87594210582597</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>609.01624296754301</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>620.08851291183203</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>623.63346122808503</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>764.40631068908101</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>838.39826506611496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1532,103 +1531,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
+                  <c:v>134.27748107910099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199.27615356445301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>227.627517700195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>292.19519042968699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>374.43716430664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>333.21325683593699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>363.35455322265602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>406.57620239257801</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>307.93194580078102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>257.508056640625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>386.14212036132801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>396.14340209960898</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>323.85678100585898</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>289.88739013671801</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>201.09440612792901</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>134.27748107910099</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="15">
                   <c:v>166.72196960449199</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="16">
                   <c:v>184.89289855957</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>199.27615356445301</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>227.627517700195</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="17">
                   <c:v>294.75125122070301</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>257.508056640625</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>386.14212036132801</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>289.88739013671801</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>323.85678100585898</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>374.43716430664</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>307.93194580078102</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
+                  <c:v>473.083740234375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>404.02548217773398</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>393.62634277343699</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>395.87487792968699</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>451.113189697265</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>543.22033691406205</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>588.41320800781205</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>561.31964111328102</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>379.45809936523398</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>485.52694702148398</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>551.11315917968705</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>672.613037109375</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>738.38610839843705</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>333.40493774414</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>219.85231018066401</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>333.21325683593699</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>406.57620239257801</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>292.19519042968699</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>363.35455322265602</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>393.62634277343699</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>395.87487792968699</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>396.14340209960898</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>333.40493774414</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>485.52694702148398</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>404.02548217773398</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>379.45809936523398</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>543.22033691406205</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>473.083740234375</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>551.11315917968705</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>561.31964111328102</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>451.113189697265</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>588.41320800781205</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>672.613037109375</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>738.38610839843705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1665,103 +1664,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
+                  <c:v>148.97036544308099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>215.702717299406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>228.95067633872799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>329.56875386027599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>293.61879562587001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>303.65469990887999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>331.211512959902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>329.366374829346</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>299.21131044704998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>241.05421702855401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>272.375369907991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>418.756733795054</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>281.83863884012999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>273.376205780406</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>119.294941764656</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>148.97036544308099</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="15">
                   <c:v>149.26188632848701</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="16">
                   <c:v>161.036347914581</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>215.702717299406</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>228.95067633872799</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="17">
                   <c:v>237.799859554215</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>241.05421702855401</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>272.375369907991</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>273.376205780406</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>281.83863884012999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>293.61879562587001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>299.21131044704998</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
+                  <c:v>532.03061407634402</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>486.864857221916</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>393.80879736490698</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>414.46032505437802</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>620.08851291183203</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>531.75973386455405</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>623.63346122808503</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>609.01624296754301</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>501.19809131285399</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>473.563338397255</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>535.87594210582597</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>764.40631068908101</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>838.39826506611496</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>451.531945540658</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>303.56178346553901</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>303.65469990887999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>329.366374829346</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>329.56875386027599</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>331.211512959902</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>393.80879736490698</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>414.46032505437802</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>418.756733795054</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>451.531945540658</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>473.563338397255</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>486.864857221916</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>501.19809131285399</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>531.75973386455405</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>532.03061407634402</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>535.87594210582597</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>609.01624296754301</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>620.08851291183203</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>623.63346122808503</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>764.40631068908101</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>838.39826506611496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3275,103 +3274,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
+                  <c:v>148.97036544308099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>215.702717299406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>228.95067633872799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>329.56875386027599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>293.61879562587001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>303.65469990887999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>331.211512959902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>329.366374829346</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>299.21131044704998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>241.05421702855401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>272.375369907991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>418.756733795054</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>281.83863884012999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>273.376205780406</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>119.294941764656</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>148.97036544308099</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="15">
                   <c:v>149.26188632848701</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="16">
                   <c:v>161.036347914581</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>215.702717299406</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>228.95067633872799</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="17">
                   <c:v>237.799859554215</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>241.05421702855401</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>272.375369907991</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>273.376205780406</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>281.83863884012999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>293.61879562587001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>299.21131044704998</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
+                  <c:v>532.03061407634402</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>486.864857221916</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>393.80879736490698</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>414.46032505437802</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>620.08851291183203</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>531.75973386455405</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>623.63346122808503</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>609.01624296754301</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>501.19809131285399</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>473.563338397255</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>535.87594210582597</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>764.40631068908101</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>838.39826506611496</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>451.531945540658</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>303.56178346553901</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>303.65469990887999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>329.366374829346</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>329.56875386027599</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>331.211512959902</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>393.80879736490698</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>414.46032505437802</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>418.756733795054</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>451.531945540658</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>473.563338397255</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>486.864857221916</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>501.19809131285399</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>531.75973386455405</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>532.03061407634402</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>535.87594210582597</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>609.01624296754301</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>620.08851291183203</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>623.63346122808503</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>764.40631068908101</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>838.39826506611496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3383,103 +3382,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
+                  <c:v>14.692884363979999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.426563734952992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3231586385329877</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.373563430589002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.818368680769993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.558556927056998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.143040262754027</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.209827563232011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.7206353537310406</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.453839612070993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>113.76675045333701</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.613331695445027</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42.018142165728989</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.511184356312015</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>81.799464363273003</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.692884363979999</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="15">
                   <c:v>17.46008327600498</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="16">
                   <c:v>23.856550644988999</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.426563734952992</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3231586385329877</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="17">
                   <c:v>56.951391666488007</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.453839612070993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>113.76675045333701</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16.511184356312015</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42.018142165728989</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>80.818368680769993</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.7206353537310406</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
+                  <c:v>58.946873841969023</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>82.83937504418202</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1824545914699911</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.585447124691029</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>168.97532321456703</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.460603049507995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35.22025322027298</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>47.696601854261985</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>121.73999194762001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.963608624228982</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.237217073861075</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>91.79327357970601</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100.01215666767791</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>118.127007796518</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>83.709473284875003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>29.558556927056998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>77.209827563232011</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>37.373563430589002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>32.143040262754027</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.1824545914699911</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>18.585447124691029</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22.613331695445027</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>118.127007796518</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11.963608624228982</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>82.83937504418202</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>121.73999194762001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11.460603049507995</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>58.946873841969023</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>15.237217073861075</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>47.696601854261985</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>168.97532321456703</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>35.22025322027298</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>91.79327357970601</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>100.01215666767791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3562,103 +3561,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
+                  <c:v>148.97036544308099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>215.702717299406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>228.95067633872799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>329.56875386027599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>293.61879562587001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>303.65469990887999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>331.211512959902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>329.366374829346</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>299.21131044704998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>241.05421702855401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>272.375369907991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>418.756733795054</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>281.83863884012999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>273.376205780406</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>119.294941764656</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>148.97036544308099</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="15">
                   <c:v>149.26188632848701</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="16">
                   <c:v>161.036347914581</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>215.702717299406</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>228.95067633872799</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="17">
                   <c:v>237.799859554215</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>241.05421702855401</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>272.375369907991</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>273.376205780406</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>281.83863884012999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>293.61879562587001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>299.21131044704998</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
+                  <c:v>532.03061407634402</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>486.864857221916</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>393.80879736490698</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>414.46032505437802</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>620.08851291183203</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>531.75973386455405</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>623.63346122808503</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>609.01624296754301</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>501.19809131285399</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>473.563338397255</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>535.87594210582597</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>764.40631068908101</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>838.39826506611496</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>451.531945540658</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>303.56178346553901</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>303.65469990887999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>329.366374829346</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>329.56875386027599</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>331.211512959902</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>393.80879736490698</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>414.46032505437802</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>418.756733795054</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>451.531945540658</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>473.563338397255</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>486.864857221916</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>501.19809131285399</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>531.75973386455405</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>532.03061407634402</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>535.87594210582597</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>609.01624296754301</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>620.08851291183203</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>623.63346122808503</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>764.40631068908101</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>838.39826506611496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3670,103 +3669,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
+                  <c:v>9.8629578576108795E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6153717211416089E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7792300931026764E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11340141622295269</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2752493024450281</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7342662359340595E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7046868858829238E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23441927732676598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9145406771895043E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8257837655343559E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41768369324938476</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.4001117762353022E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14908581143681771</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.0397298693855232E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.68569097023951153</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.8629578576108795E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="15">
                   <c:v>0.11697616655855353</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="16">
                   <c:v>0.14814388772429998</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.6153717211416089E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.7792300931026764E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="17">
                   <c:v>0.23949295753685632</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.8257837655343559E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.41768369324938476</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.0397298693855232E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.14908581143681771</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.2752493024450281</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.9145406771895043E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
+                  <c:v>0.11079601865450248</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.17014860246202432</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.6330755608013229E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.484252412399807E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.27250194076501622</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1552220523013792E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.6475887536431721E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.8317454427572528E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.24289795603317335</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.526295355700265E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8434224932702791E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.12008440052903034</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.11928955585301824</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.26161384363419599</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0.27575761457593978</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.7342662359340595E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.23441927732676598</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.11340141622295269</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.7046868858829238E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.6330755608013229E-4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.484252412399807E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.4001117762353022E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.26161384363419599</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.526295355700265E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.17014860246202432</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.24289795603317335</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.1552220523013792E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.11079601865450248</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.8434224932702791E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.8317454427572528E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.27250194076501622</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.6475887536431721E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.12008440052903034</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.11928955585301824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5260,103 +5259,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
+                  <c:v>148.97036544308099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>215.702717299406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>228.95067633872799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>329.56875386027599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>293.61879562587001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>303.65469990887999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>331.211512959902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>329.366374829346</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>299.21131044704998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>241.05421702855401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>272.375369907991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>418.756733795054</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>281.83863884012999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>273.376205780406</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>119.294941764656</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>148.97036544308099</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="15">
                   <c:v>149.26188632848701</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="16">
                   <c:v>161.036347914581</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>215.702717299406</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>228.95067633872799</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="17">
                   <c:v>237.799859554215</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>241.05421702855401</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>272.375369907991</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>273.376205780406</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>281.83863884012999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>293.61879562587001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>299.21131044704998</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
+                  <c:v>532.03061407634402</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>486.864857221916</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>393.80879736490698</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>414.46032505437802</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>620.08851291183203</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>531.75973386455405</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>623.63346122808503</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>609.01624296754301</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>501.19809131285399</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>473.563338397255</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>535.87594210582597</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>764.40631068908101</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>838.39826506611496</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>451.531945540658</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>303.56178346553901</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>303.65469990887999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>329.366374829346</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>329.56875386027599</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>331.211512959902</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>393.80879736490698</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>414.46032505437802</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>418.756733795054</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>451.531945540658</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>473.563338397255</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>486.864857221916</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>501.19809131285399</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>531.75973386455405</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>532.03061407634402</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>535.87594210582597</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>609.01624296754301</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>620.08851291183203</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>623.63346122808503</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>764.40631068908101</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>838.39826506611496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5368,103 +5367,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
+                  <c:v>14.692884363979999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.426563734952992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3231586385329877</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.373563430589002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.818368680769993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.558556927056998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.143040262754027</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.209827563232011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.7206353537310406</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.453839612070993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>113.76675045333701</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.613331695445027</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42.018142165728989</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.511184356312015</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>81.799464363273003</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.692884363979999</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="15">
                   <c:v>17.46008327600498</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="16">
                   <c:v>23.856550644988999</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.426563734952992</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3231586385329877</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="17">
                   <c:v>56.951391666488007</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.453839612070993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>113.76675045333701</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16.511184356312015</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42.018142165728989</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>80.818368680769993</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.7206353537310406</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
+                  <c:v>58.946873841969023</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>82.83937504418202</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1824545914699911</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.585447124691029</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>168.97532321456703</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.460603049507995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35.22025322027298</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>47.696601854261985</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>121.73999194762001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.963608624228982</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.237217073861075</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>91.79327357970601</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100.01215666767791</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>118.127007796518</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>83.709473284875003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>29.558556927056998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>77.209827563232011</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>37.373563430589002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>32.143040262754027</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.1824545914699911</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>18.585447124691029</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22.613331695445027</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>118.127007796518</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11.963608624228982</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>82.83937504418202</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>121.73999194762001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11.460603049507995</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>58.946873841969023</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>15.237217073861075</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>47.696601854261985</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>168.97532321456703</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>35.22025322027298</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>91.79327357970601</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>100.01215666767791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5547,103 +5546,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
+                  <c:v>148.97036544308099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>215.702717299406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>228.95067633872799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>329.56875386027599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>293.61879562587001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>303.65469990887999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>331.211512959902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>329.366374829346</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>299.21131044704998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>241.05421702855401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>272.375369907991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>418.756733795054</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>281.83863884012999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>273.376205780406</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>119.294941764656</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>148.97036544308099</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="15">
                   <c:v>149.26188632848701</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="16">
                   <c:v>161.036347914581</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>215.702717299406</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>228.95067633872799</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="17">
                   <c:v>237.799859554215</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>241.05421702855401</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>272.375369907991</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>273.376205780406</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>281.83863884012999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>293.61879562587001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>299.21131044704998</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
+                  <c:v>532.03061407634402</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>486.864857221916</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>393.80879736490698</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>414.46032505437802</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>620.08851291183203</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>531.75973386455405</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>623.63346122808503</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>609.01624296754301</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>501.19809131285399</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>473.563338397255</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>535.87594210582597</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>764.40631068908101</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>838.39826506611496</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>451.531945540658</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>303.56178346553901</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>303.65469990887999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>329.366374829346</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>329.56875386027599</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>331.211512959902</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>393.80879736490698</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>414.46032505437802</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>418.756733795054</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>451.531945540658</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>473.563338397255</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>486.864857221916</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>501.19809131285399</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>531.75973386455405</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>532.03061407634402</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>535.87594210582597</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>609.01624296754301</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>620.08851291183203</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>623.63346122808503</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>764.40631068908101</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>838.39826506611496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5655,103 +5654,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
+                  <c:v>9.8629578576108795E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6153717211416089E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7792300931026764E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11340141622295269</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2752493024450281</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7342662359340595E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7046868858829238E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23441927732676598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9145406771895043E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8257837655343559E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41768369324938476</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.4001117762353022E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14908581143681771</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.0397298693855232E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.68569097023951153</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.8629578576108795E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="15">
                   <c:v>0.11697616655855353</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="16">
                   <c:v>0.14814388772429998</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.6153717211416089E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.7792300931026764E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="17">
                   <c:v>0.23949295753685632</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.8257837655343559E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.41768369324938476</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.0397298693855232E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.14908581143681771</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.2752493024450281</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.9145406771895043E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
+                  <c:v>0.11079601865450248</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.17014860246202432</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.6330755608013229E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.484252412399807E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.27250194076501622</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1552220523013792E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.6475887536431721E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.8317454427572528E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.24289795603317335</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.526295355700265E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8434224932702791E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.12008440052903034</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.11928955585301824</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.26161384363419599</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0.27575761457593978</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.7342662359340595E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.23441927732676598</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.11340141622295269</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.7046868858829238E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.6330755608013229E-4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.484252412399807E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.4001117762353022E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.26161384363419599</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.526295355700265E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.17014860246202432</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.24289795603317335</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.1552220523013792E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.11079601865450248</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.8434224932702791E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.8317454427572528E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.27250194076501622</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.6475887536431721E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.12008440052903034</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.11928955585301824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9853,7 +9852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA873F37-3086-4353-BE9B-F74749E64FBF}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="X45" sqref="X45"/>
     </sheetView>
   </sheetViews>
@@ -9890,7 +9889,7 @@
       </c>
       <c r="D2">
         <f>AVERAGEIFS('split-0-counts'!G:G,'split-0-counts'!D:D,"False",'split-0-counts'!C:C,"&gt;"&amp;0)</f>
-        <v>0.16999011491161156</v>
+        <v>0.16999011491161159</v>
       </c>
       <c r="E2">
         <f>INDEX('split-0-history'!A:G,MATCH(MIN('split-0-history'!E:E),'split-0-history'!E:E,0),1)</f>
@@ -9924,7 +9923,7 @@
       </c>
       <c r="B4" s="1">
         <f>AVERAGEIF('split-2-counts'!E:E,"False",'split-2-counts'!F:F)</f>
-        <v>50.187484791050217</v>
+        <v>50.18748479105021</v>
       </c>
       <c r="C4" s="1">
         <f>SQRT(AVERAGEIF('split-2-counts'!E:E,"False",'split-2-counts'!G:G))</f>
@@ -9964,7 +9963,7 @@
       </c>
       <c r="D6">
         <f>_xlfn.STDEV.S(D2:D4)</f>
-        <v>5.2250659321400515E-2</v>
+        <v>5.2250659321400654E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9975,11 +9974,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10004,397 +10002,397 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>86.989532470703097</v>
+        <v>315.79925537109301</v>
       </c>
       <c r="C2">
-        <v>64.230715774499402</v>
+        <v>293.61879562587001</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2">
         <f>ABS(B2-C2)</f>
-        <v>22.758816696203695</v>
+        <v>22.180459745223004</v>
       </c>
       <c r="F2">
         <f>E2*E2</f>
-        <v>517.96373741140007</v>
+        <v>491.97279450945814</v>
       </c>
       <c r="G2">
         <f>E2/C2</f>
-        <v>0.35432917758701515</v>
+        <v>7.5541689005105161E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>150.388580322265</v>
+        <v>319.349517822265</v>
       </c>
       <c r="C3">
-        <v>98.297297180143701</v>
+        <v>303.65469990887999</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="0">ABS(B3-C3)</f>
-        <v>52.091283142121299</v>
+        <v>15.694817913385009</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" si="1">E3*E3</f>
-        <v>2713.5017793926504</v>
+        <v>246.32730933431097</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" si="2">E3/C3</f>
-        <v>0.52993606779092461</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>5.168639878814546E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>160.32798767089801</v>
+        <v>555.32385253906205</v>
       </c>
       <c r="C4">
-        <v>109.14177797272799</v>
+        <v>683.86396860268997</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>51.186209698170018</v>
+        <v>128.54011606362792</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>2620.0280632650342</v>
+        <v>16522.561437650937</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>0.46898823391863992</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.18796152738719141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>169.40669250488199</v>
+        <v>494.94299316406199</v>
       </c>
       <c r="C5">
-        <v>119.294941764656</v>
+        <v>440.61983815324902</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>50.111750740225986</v>
+        <v>54.323155010812968</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>2511.1875622505395</v>
+        <v>2951.0051703288141</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>0.42006601452629905</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.12328803723067774</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>180.65237426757801</v>
+        <v>521.1708984375</v>
       </c>
       <c r="C6">
-        <v>148.97036544308099</v>
+        <v>484.93012529918798</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>31.682008824497018</v>
+        <v>36.240773138312022</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>1003.7496831555069</v>
+        <v>1313.3936376625982</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>0.21267323021102588</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>7.473401062875297E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>191.06954956054599</v>
+        <v>667.70025634765602</v>
       </c>
       <c r="C7">
-        <v>149.26188632848701</v>
+        <v>623.63346122808503</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>41.807663232058985</v>
+        <v>44.066795119570997</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>1747.8807049252569</v>
+        <v>1941.8824321102463</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>0.28009603965510038</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>7.0661370595466164E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>223.117263793945</v>
+        <v>348.42816162109301</v>
       </c>
       <c r="C8">
-        <v>161.036347914581</v>
+        <v>331.211512959902</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>62.080915879363999</v>
+        <v>17.216648661191016</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>3854.0401164206692</v>
+        <v>296.41299112289039</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>0.38550871702762268</v>
+        <v>5.1980827922715786E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>239.40531921386699</v>
+        <v>327.16122436523398</v>
       </c>
       <c r="C9">
-        <v>173.59837814393899</v>
+        <v>329.366374829346</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>65.806941069928001</v>
+        <v>2.2051504641120232</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>4330.5534929809764</v>
+        <v>4.8626885693734714</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>0.37907578269748704</v>
+        <v>6.6951292925835973E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>261.97866821289</v>
+        <v>570.70147705078102</v>
       </c>
       <c r="C10">
-        <v>183.39758846720599</v>
+        <v>531.95706698988602</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>78.581079745684008</v>
+        <v>38.744410060895007</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>6174.9860939975497</v>
+        <v>1501.1293109667822</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>0.42847389871615127</v>
+        <v>7.2833716224756248E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>319.06365966796801</v>
+        <v>316.46343994140602</v>
       </c>
       <c r="C11">
-        <v>212.237030994398</v>
+        <v>273.376205780406</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>106.82662867357001</v>
+        <v>43.087234161000026</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>11411.928593760811</v>
+        <v>1856.5097476448477</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>0.50333642613192087</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.15761150111070957</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>252.75340270996</v>
+        <v>428.35787963867102</v>
       </c>
       <c r="C12">
-        <v>215.702717299406</v>
+        <v>391.58087252492902</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>37.050685410553996</v>
+        <v>36.777007113742002</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>1372.7532893918387</v>
+        <v>1352.5482522442298</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>0.17176735589809849</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>9.3919314486947222E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>263.41784667968699</v>
+        <v>398.655670166015</v>
       </c>
       <c r="C13">
-        <v>217.13196363266599</v>
+        <v>418.756733795054</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>46.285883047021002</v>
+        <v>20.101063629039004</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>2142.3829694425062</v>
+        <v>404.05275901867469</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>0.21316936609722445</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>4.8001768107391853E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>260.881103515625</v>
+        <v>403.01254272460898</v>
       </c>
       <c r="C14">
-        <v>227.51378929095401</v>
+        <v>393.80879736490698</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>33.367314224670992</v>
+        <v>9.2037453597019976</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>1113.3776585679311</v>
+        <v>84.708928646236046</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>0.14666062364246193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>2.3371101461640835E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>261.34075927734301</v>
+        <v>536.34100341796795</v>
       </c>
       <c r="C15">
-        <v>227.880708481586</v>
+        <v>486.864857221916</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>33.460050795757013</v>
+        <v>49.476146196051957</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>1119.5749992546396</v>
+        <v>2447.8890424131064</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>0.14683143219409803</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.10162192949880633</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>278.33166503906199</v>
+        <v>775.52917480468705</v>
       </c>
       <c r="C16">
-        <v>228.95067633872799</v>
+        <v>764.40631068908101</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>49.380988700334001</v>
+        <v>11.122864115606035</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>2438.4820450225143</v>
+        <v>123.71810613423642</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>0.21568396079894434</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>1.4550984156029833E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -10420,813 +10418,813 @@
         <v>0.20129376964009338</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>294.57525634765602</v>
+        <v>601.166259765625</v>
       </c>
       <c r="C18">
-        <v>237.799859554215</v>
+        <v>620.08851291183203</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>56.775396793441018</v>
+        <v>18.922253146207026</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>3223.4456810526726</v>
+        <v>358.05166412914173</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>0.23875286091368372</v>
+        <v>3.0515406675332989E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>376.77990722656199</v>
+        <v>476.48150634765602</v>
       </c>
       <c r="C19">
-        <v>238.399755244624</v>
+        <v>497.998017779576</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>138.38015198193798</v>
+        <v>21.51651143191998</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>19149.066462544255</v>
+        <v>462.9602641999432</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>0.5804542535706253</v>
+        <v>4.3206018224441256E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>273.60012817382801</v>
+        <v>558.60565185546795</v>
       </c>
       <c r="C20">
-        <v>240.24195803706499</v>
+        <v>532.03061407634402</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>33.358170136763022</v>
+        <v>26.575037779123932</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>1112.7675148732283</v>
+        <v>706.23263296186428</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>0.13885239035396332</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>4.9950204134889375E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>256.04943847656199</v>
+        <v>273.60012817382801</v>
       </c>
       <c r="C21">
-        <v>241.05421702855401</v>
+        <v>240.24195803706499</v>
       </c>
       <c r="D21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>14.995221448007982</v>
+        <v>33.358170136763022</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>224.85666627479858</v>
+        <v>1112.7675148732283</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>6.2206841402122112E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.13885239035396332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>310.670318603515</v>
+        <v>510.09368896484301</v>
       </c>
       <c r="C22">
-        <v>272.375369907991</v>
+        <v>473.563338397255</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>38.294948695523999</v>
+        <v>36.530350567588016</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>1466.5030955928153</v>
+        <v>1334.466512590878</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>0.14059622464564295</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>7.7139312961224282E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>316.46343994140602</v>
+        <v>86.989532470703097</v>
       </c>
       <c r="C23">
-        <v>273.376205780406</v>
+        <v>64.230715774499402</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>43.087234161000026</v>
+        <v>22.758816696203695</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>1856.5097476448477</v>
+        <v>517.96373741140007</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>0.15761150111070957</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.35432917758701515</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>321.39120483398398</v>
+        <v>223.117263793945</v>
       </c>
       <c r="C24">
-        <v>281.83863884012999</v>
+        <v>161.036347914581</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>39.552565993853989</v>
+        <v>62.080915879363999</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>1564.4054766981749</v>
+        <v>3854.0401164206692</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>0.14033762778811093</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.38550871702762268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>315.79925537109301</v>
+        <v>630.27978515625</v>
       </c>
       <c r="C25">
-        <v>293.61879562587001</v>
+        <v>554.05924497118497</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>22.180459745223004</v>
+        <v>76.220540185065033</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>491.97279450945814</v>
+        <v>5809.5707461031134</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>7.5541689005105161E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.13756749098019119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>290.36047363281199</v>
+        <v>867.492431640625</v>
       </c>
       <c r="C26">
-        <v>299.21131044704998</v>
+        <v>857.76239337747097</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>8.8508368142379936</v>
+        <v>9.7300382631540288</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>78.337312312270555</v>
+        <v>94.67364460244147</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>2.9580555631449918E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>1.1343512303962926E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>326.74151611328102</v>
+        <v>256.04943847656199</v>
       </c>
       <c r="C27">
-        <v>300.65581586221202</v>
+        <v>241.05421702855401</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>26.085700251068999</v>
+        <v>14.995221448007982</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>680.46375758862121</v>
+        <v>224.85666627479858</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
-        <v>8.6762666394000015E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>6.2206841402122112E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>360.73388671875</v>
+        <v>261.34075927734301</v>
       </c>
       <c r="C28">
-        <v>303.56178346553901</v>
+        <v>227.880708481586</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>57.172103253210992</v>
+        <v>33.460050795757013</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>3268.649390395819</v>
+        <v>1119.5749992546396</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>0.18833761813005453</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.14683143219409803</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>319.349517822265</v>
+        <v>583.63031005859295</v>
       </c>
       <c r="C29">
-        <v>303.65469990887999</v>
+        <v>686.282392087635</v>
       </c>
       <c r="D29" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>15.694817913385009</v>
+        <v>102.65208202904205</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>246.32730933431097</v>
+        <v>10537.449944897178</v>
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
-        <v>5.168639878814546E-2</v>
+        <v>0.14957703011551821</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>343.59362792968699</v>
+        <v>869.896484375</v>
       </c>
       <c r="C30">
-        <v>311.91396050328098</v>
+        <v>838.39826506611496</v>
       </c>
       <c r="D30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>31.679667426406013</v>
+        <v>31.498219308885041</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>1003.6013282476902</v>
+        <v>992.13781963061842</v>
       </c>
       <c r="G30">
         <f t="shared" si="2"/>
-        <v>0.10156540404696884</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>3.7569518713640386E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>327.16122436523398</v>
+        <v>310.670318603515</v>
       </c>
       <c r="C31">
-        <v>329.366374829346</v>
+        <v>272.375369907991</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>2.2051504641120232</v>
+        <v>38.294948695523999</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>4.8626885693734714</v>
+        <v>1466.5030955928153</v>
       </c>
       <c r="G31">
         <f t="shared" si="2"/>
-        <v>6.6951292925835973E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.14059622464564295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>372.82122802734301</v>
+        <v>326.74151611328102</v>
       </c>
       <c r="C32">
-        <v>329.56875386027599</v>
+        <v>300.65581586221202</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>43.252474167067021</v>
+        <v>26.085700251068999</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>1870.7765215728</v>
+        <v>680.46375758862121</v>
       </c>
       <c r="G32">
         <f t="shared" si="2"/>
-        <v>0.1312396083076624</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>8.6762666394000015E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>348.42816162109301</v>
+        <v>564.03363037109295</v>
       </c>
       <c r="C33">
-        <v>331.211512959902</v>
+        <v>555.93095680977206</v>
       </c>
       <c r="D33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>17.216648661191016</v>
+        <v>8.1026735613208984</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>296.41299112289039</v>
+        <v>65.653318841328698</v>
       </c>
       <c r="G33">
         <f t="shared" si="2"/>
-        <v>5.1980827922715786E-2</v>
+        <v>1.4574963782945916E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>422.04241943359301</v>
+        <v>434.739166259765</v>
       </c>
       <c r="C34">
-        <v>331.69338701826899</v>
+        <v>386.82394212260999</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>90.349032415324018</v>
+        <v>47.915224137155008</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>8162.9476583852702</v>
+        <v>2295.8687041138019</v>
       </c>
       <c r="G34">
         <f t="shared" si="2"/>
-        <v>0.27238719839279696</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.12386830007013247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>391.84719848632801</v>
+        <v>150.388580322265</v>
       </c>
       <c r="C35">
-        <v>333.349265560638</v>
+        <v>98.297297180143701</v>
       </c>
       <c r="D35" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>58.497932925690009</v>
+        <v>52.091283142121299</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>3422.0081565785272</v>
+        <v>2713.5017793926504</v>
       </c>
       <c r="G35">
         <f t="shared" si="2"/>
-        <v>0.17548541115669242</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.52993606779092461</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>392.56088256835898</v>
+        <v>749.23443603515602</v>
       </c>
       <c r="C36">
-        <v>342.63633565198899</v>
+        <v>712.51911813848096</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>49.924546916369991</v>
+        <v>36.71531789667506</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>2492.4603848048282</v>
+        <v>1348.014568253908</v>
       </c>
       <c r="G36">
         <f t="shared" si="2"/>
-        <v>0.14570710027402833</v>
+        <v>5.1528888084571074E-2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>465.96179199218699</v>
+        <v>589.59265136718705</v>
       </c>
       <c r="C37">
-        <v>350.08991444801899</v>
+        <v>699.443705146051</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>115.871877544168</v>
+        <v>109.85105377886396</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>13426.292005610665</v>
+        <v>12067.25401632686</v>
       </c>
       <c r="G37">
         <f t="shared" si="2"/>
-        <v>0.33097747967650337</v>
+        <v>0.15705488943663584</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>396.69305419921801</v>
+        <v>334.74951171875</v>
       </c>
       <c r="C38">
-        <v>351.50523850415999</v>
+        <v>373.04701030858001</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>45.187815695058021</v>
+        <v>38.297498589830013</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>2041.938687290532</v>
+        <v>1466.6983982380318</v>
       </c>
       <c r="G38">
         <f t="shared" si="2"/>
-        <v>0.12855517000928915</v>
+        <v>0.10266132023990966</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>359.70819091796801</v>
+        <v>433.17181396484301</v>
       </c>
       <c r="C39">
-        <v>360.43538285072498</v>
+        <v>414.46032505437802</v>
       </c>
       <c r="D39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>0.72719193275696625</v>
+        <v>18.711488910464993</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>0.52880810706681214</v>
+        <v>350.11981724645443</v>
       </c>
       <c r="G39">
         <f t="shared" si="2"/>
-        <v>2.0175375874741303E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>4.5146634742444909E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>432.255279541015</v>
+        <v>461.11871337890602</v>
       </c>
       <c r="C40">
-        <v>372.98232459813897</v>
+        <v>472.25681996153901</v>
       </c>
       <c r="D40" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>59.272954942876027</v>
+        <v>11.138106582632986</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
-        <v>3513.2831876602118</v>
+        <v>124.05741824609225</v>
       </c>
       <c r="G40">
         <f t="shared" si="2"/>
-        <v>0.15891625697474612</v>
+        <v>2.3584850682601223E-2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>334.74951171875</v>
+        <v>359.70819091796801</v>
       </c>
       <c r="C41">
-        <v>373.04701030858001</v>
+        <v>360.43538285072498</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>38.297498589830013</v>
+        <v>0.72719193275696625</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>1466.6983982380318</v>
+        <v>0.52880810706681214</v>
       </c>
       <c r="G41">
         <f t="shared" si="2"/>
-        <v>0.10266132023990966</v>
+        <v>2.0175375874741303E-3</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>433.49182128906199</v>
+        <v>462.665771484375</v>
       </c>
       <c r="C42">
-        <v>382.09767317926401</v>
+        <v>416.837778969581</v>
       </c>
       <c r="D42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>51.394148109797982</v>
+        <v>45.827992514794005</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>2641.3584599318515</v>
+        <v>2100.2048979360152</v>
       </c>
       <c r="G42">
         <f t="shared" si="2"/>
-        <v>0.13450526322803863</v>
+        <v>0.10994203219314805</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>434.739166259765</v>
+        <v>160.32798767089801</v>
       </c>
       <c r="C43">
-        <v>386.82394212260999</v>
+        <v>109.14177797272799</v>
       </c>
       <c r="D43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>47.915224137155008</v>
+        <v>51.186209698170018</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
-        <v>2295.8687041138019</v>
+        <v>2620.0280632650342</v>
       </c>
       <c r="G43">
         <f t="shared" si="2"/>
-        <v>0.12386830007013247</v>
+        <v>0.46898823391863992</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>476.10983276367102</v>
+        <v>391.84719848632801</v>
       </c>
       <c r="C44">
-        <v>391.47679719316699</v>
+        <v>333.349265560638</v>
       </c>
       <c r="D44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>84.633035570504035</v>
+        <v>58.497932925690009</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
-        <v>7162.7507098782016</v>
+        <v>3422.0081565785272</v>
       </c>
       <c r="G44">
         <f t="shared" si="2"/>
-        <v>0.21618914882647164</v>
+        <v>0.17548541115669242</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>428.35787963867102</v>
+        <v>578.02557373046795</v>
       </c>
       <c r="C45">
-        <v>391.58087252492902</v>
+        <v>528.77360350603306</v>
       </c>
       <c r="D45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>36.777007113742002</v>
+        <v>49.251970224434899</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>1352.5482522442298</v>
+        <v>2425.7565709886221</v>
       </c>
       <c r="G45">
         <f t="shared" si="2"/>
-        <v>9.3919314486947222E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>9.3143776273758264E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>417.90487670898398</v>
+        <v>422.04241943359301</v>
       </c>
       <c r="C46">
-        <v>393.79709969997703</v>
+        <v>331.69338701826899</v>
       </c>
       <c r="D46" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>24.107777009006952</v>
+        <v>90.349032415324018</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
-        <v>581.18491231600422</v>
+        <v>8162.9476583852702</v>
       </c>
       <c r="G46">
         <f t="shared" si="2"/>
-        <v>6.1218777455125981E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.27238719839279696</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>403.01254272460898</v>
+        <v>600.2490234375</v>
       </c>
       <c r="C47">
-        <v>393.80879736490698</v>
+        <v>557.30303288974801</v>
       </c>
       <c r="D47" t="s">
         <v>3</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>9.2037453597019976</v>
+        <v>42.94599054775199</v>
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
-        <v>84.708928646236046</v>
+        <v>1844.3581041276032</v>
       </c>
       <c r="G47">
         <f t="shared" si="2"/>
-        <v>2.3371101461640835E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>7.7060392664771396E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>445.454010009765</v>
+        <v>507.03240966796801</v>
       </c>
       <c r="C48">
-        <v>398.10600829240599</v>
+        <v>481.15704298602901</v>
       </c>
       <c r="D48" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>47.348001717359011</v>
+        <v>25.875366681938999</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>2241.8332666270317</v>
+        <v>669.53460092479884</v>
       </c>
       <c r="G48">
         <f t="shared" si="2"/>
-        <v>0.11893315029443677</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>5.3777383203949737E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -11252,1367 +11250,1362 @@
         <v>3.3010056992762618E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>433.17181396484301</v>
+        <v>432.255279541015</v>
       </c>
       <c r="C50">
-        <v>414.46032505437802</v>
+        <v>372.98232459813897</v>
       </c>
       <c r="D50" t="s">
         <v>3</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>18.711488910464993</v>
+        <v>59.272954942876027</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>350.11981724645443</v>
+        <v>3513.2831876602118</v>
       </c>
       <c r="G50">
         <f t="shared" si="2"/>
-        <v>4.5146634742444909E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.15891625697474612</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>462.665771484375</v>
+        <v>260.881103515625</v>
       </c>
       <c r="C51">
-        <v>416.837778969581</v>
+        <v>227.51378929095401</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>45.827992514794005</v>
+        <v>33.367314224670992</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>2100.2048979360152</v>
+        <v>1113.3776585679311</v>
       </c>
       <c r="G51">
         <f t="shared" si="2"/>
-        <v>0.10994203219314805</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.14666062364246193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>398.655670166015</v>
+        <v>252.75340270996</v>
       </c>
       <c r="C52">
-        <v>418.756733795054</v>
+        <v>215.702717299406</v>
       </c>
       <c r="D52" t="s">
         <v>3</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>20.101063629039004</v>
+        <v>37.050685410553996</v>
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
-        <v>404.05275901867469</v>
+        <v>1372.7532893918387</v>
       </c>
       <c r="G52">
         <f t="shared" si="2"/>
-        <v>4.8001768107391853E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.17176735589809849</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>444.77786254882801</v>
+        <v>383.96127319335898</v>
       </c>
       <c r="C53">
-        <v>422.50820310923598</v>
+        <v>474.45692997278002</v>
       </c>
       <c r="D53" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>22.269659439592033</v>
+        <v>90.49565677942104</v>
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
-        <v>495.93773155541055</v>
+        <v>8189.463895938773</v>
       </c>
       <c r="G53">
         <f t="shared" si="2"/>
-        <v>5.2708229747279955E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.19073524078278897</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>494.94299316406199</v>
+        <v>594.01409912109295</v>
       </c>
       <c r="C54">
-        <v>440.61983815324902</v>
+        <v>591.165467981559</v>
       </c>
       <c r="D54" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>54.323155010812968</v>
+        <v>2.8486311395339499</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>2951.0051703288141</v>
+        <v>8.1146993691224889</v>
       </c>
       <c r="G54">
         <f t="shared" si="2"/>
-        <v>0.12328803723067774</v>
+        <v>4.8186697190892259E-3</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>507.003814697265</v>
+        <v>519.46105957031205</v>
       </c>
       <c r="C55">
-        <v>450.042495505462</v>
+        <v>488.68943352145902</v>
       </c>
       <c r="D55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>56.961319191803</v>
+        <v>30.771626048853022</v>
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
-        <v>3244.5918840704649</v>
+        <v>946.89296969044983</v>
       </c>
       <c r="G55">
         <f t="shared" si="2"/>
-        <v>0.1265687568633431</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>6.2967651719242249E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>459.97882080078102</v>
+        <v>507.003814697265</v>
       </c>
       <c r="C56">
-        <v>451.531945540658</v>
+        <v>450.042495505462</v>
       </c>
       <c r="D56" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>8.4468752601230221</v>
+        <v>56.961319191803</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
-        <v>71.349701660078367</v>
+        <v>3244.5918840704649</v>
       </c>
       <c r="G56">
         <f t="shared" si="2"/>
-        <v>1.8707148726783557E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.1265687568633431</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>510.06600952148398</v>
+        <v>547.81512451171795</v>
       </c>
       <c r="C57">
-        <v>471.78587247841</v>
+        <v>511.89733027313599</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>38.280137043073978</v>
+        <v>35.917794238581962</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
-        <v>1465.3688920365246</v>
+        <v>1290.0879429651116</v>
       </c>
       <c r="G57">
         <f t="shared" si="2"/>
-        <v>8.1138794686620816E-2</v>
+        <v>7.0166012038814701E-2</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>461.11871337890602</v>
+        <v>433.49182128906199</v>
       </c>
       <c r="C58">
-        <v>472.25681996153901</v>
+        <v>382.09767317926401</v>
       </c>
       <c r="D58" t="s">
         <v>4</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>11.138106582632986</v>
+        <v>51.394148109797982</v>
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
-        <v>124.05741824609225</v>
+        <v>2641.3584599318515</v>
       </c>
       <c r="G58">
         <f t="shared" si="2"/>
-        <v>2.3584850682601223E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.13450526322803863</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>510.09368896484301</v>
+        <v>290.36047363281199</v>
       </c>
       <c r="C59">
-        <v>473.563338397255</v>
+        <v>299.21131044704998</v>
       </c>
       <c r="D59" t="s">
         <v>3</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>36.530350567588016</v>
+        <v>8.8508368142379936</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
-        <v>1334.466512590878</v>
+        <v>78.337312312270555</v>
       </c>
       <c r="G59">
         <f t="shared" si="2"/>
-        <v>7.7139312961224282E-2</v>
+        <v>2.9580555631449918E-2</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>383.96127319335898</v>
+        <v>736.36175537109295</v>
       </c>
       <c r="C60">
-        <v>474.45692997278002</v>
+        <v>677.12618253411904</v>
       </c>
       <c r="D60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>90.49565677942104</v>
+        <v>59.235572836973915</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
-        <v>8189.463895938773</v>
+        <v>3508.853089324442</v>
       </c>
       <c r="G60">
         <f t="shared" si="2"/>
-        <v>0.19073524078278897</v>
+        <v>8.748084827452253E-2</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>516.033447265625</v>
+        <v>263.41784667968699</v>
       </c>
       <c r="C61">
-        <v>474.907042417387</v>
+        <v>217.13196363266599</v>
       </c>
       <c r="D61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>41.126404848237996</v>
+        <v>46.285883047021002</v>
       </c>
       <c r="F61">
         <f t="shared" si="1"/>
-        <v>1691.3811757411738</v>
+        <v>2142.3829694425062</v>
       </c>
       <c r="G61">
         <f t="shared" si="2"/>
-        <v>8.6598852354126094E-2</v>
+        <v>0.21316936609722445</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>507.03240966796801</v>
+        <v>278.33166503906199</v>
       </c>
       <c r="C62">
-        <v>481.15704298602901</v>
+        <v>228.95067633872799</v>
       </c>
       <c r="D62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>25.875366681938999</v>
+        <v>49.380988700334001</v>
       </c>
       <c r="F62">
         <f t="shared" si="1"/>
-        <v>669.53460092479884</v>
+        <v>2438.4820450225143</v>
       </c>
       <c r="G62">
         <f t="shared" si="2"/>
-        <v>5.3777383203949737E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.21568396079894434</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>521.1708984375</v>
+        <v>547.23724365234295</v>
       </c>
       <c r="C63">
-        <v>484.93012529918798</v>
+        <v>501.19809131285399</v>
       </c>
       <c r="D63" t="s">
         <v>3</v>
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>36.240773138312022</v>
+        <v>46.039152339488965</v>
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
-        <v>1313.3936376625982</v>
+        <v>2119.6035481386721</v>
       </c>
       <c r="G63">
         <f t="shared" si="2"/>
-        <v>7.473401062875297E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>9.1858195666492989E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>536.34100341796795</v>
+        <v>516.033447265625</v>
       </c>
       <c r="C64">
-        <v>486.864857221916</v>
+        <v>474.907042417387</v>
       </c>
       <c r="D64" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>49.476146196051957</v>
+        <v>41.126404848237996</v>
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
-        <v>2447.8890424131064</v>
+        <v>1691.3811757411738</v>
       </c>
       <c r="G64">
         <f t="shared" si="2"/>
-        <v>0.10162192949880633</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>8.6598852354126094E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>519.46105957031205</v>
+        <v>180.65237426757801</v>
       </c>
       <c r="C65">
-        <v>488.68943352145902</v>
+        <v>148.97036544308099</v>
       </c>
       <c r="D65" t="s">
         <v>3</v>
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>30.771626048853022</v>
+        <v>31.682008824497018</v>
       </c>
       <c r="F65">
         <f t="shared" si="1"/>
-        <v>946.89296969044983</v>
+        <v>1003.7496831555069</v>
       </c>
       <c r="G65">
         <f t="shared" si="2"/>
-        <v>6.2967651719242249E-2</v>
+        <v>0.21267323021102588</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>417.91387939453102</v>
+        <v>191.06954956054599</v>
       </c>
       <c r="C66">
-        <v>494.32432304149501</v>
+        <v>149.26188632848701</v>
       </c>
       <c r="D66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
-        <v>76.410443646963984</v>
+        <v>41.807663232058985</v>
       </c>
       <c r="F66">
         <f t="shared" si="1"/>
-        <v>5838.5558983258588</v>
+        <v>1747.8807049252569</v>
       </c>
       <c r="G66">
         <f t="shared" si="2"/>
-        <v>0.15457552882857004</v>
+        <v>0.28009603965510038</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>476.48150634765602</v>
+        <v>491.58703613281199</v>
       </c>
       <c r="C67">
-        <v>497.998017779576</v>
+        <v>557.81862793743005</v>
       </c>
       <c r="D67" t="s">
         <v>4</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E101" si="3">ABS(B67-C67)</f>
-        <v>21.51651143191998</v>
+        <v>66.231591804618063</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F101" si="4">E67*E67</f>
-        <v>462.9602641999432</v>
+        <v>4386.6237529735508</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G101" si="5">E67/C67</f>
-        <v>4.3206018224441256E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.11873320195403585</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>547.23724365234295</v>
+        <v>392.56088256835898</v>
       </c>
       <c r="C68">
-        <v>501.19809131285399</v>
+        <v>342.63633565198899</v>
       </c>
       <c r="D68" t="s">
         <v>3</v>
       </c>
       <c r="E68">
         <f t="shared" si="3"/>
-        <v>46.039152339488965</v>
+        <v>49.924546916369991</v>
       </c>
       <c r="F68">
         <f t="shared" si="4"/>
-        <v>2119.6035481386721</v>
+        <v>2492.4603848048282</v>
       </c>
       <c r="G68">
         <f t="shared" si="5"/>
-        <v>9.1858195666492989E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.14570710027402833</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>547.81512451171795</v>
+        <v>239.40531921386699</v>
       </c>
       <c r="C69">
-        <v>511.89733027313599</v>
+        <v>173.59837814393899</v>
       </c>
       <c r="D69" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E69">
         <f t="shared" si="3"/>
-        <v>35.917794238581962</v>
+        <v>65.806941069928001</v>
       </c>
       <c r="F69">
         <f t="shared" si="4"/>
-        <v>1290.0879429651116</v>
+        <v>4330.5534929809764</v>
       </c>
       <c r="G69">
         <f t="shared" si="5"/>
-        <v>7.0166012038814701E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.37907578269748704</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>541.54278564453102</v>
+        <v>579.46881103515602</v>
       </c>
       <c r="C70">
-        <v>519.65251704918501</v>
+        <v>531.75973386455405</v>
       </c>
       <c r="D70" t="s">
         <v>3</v>
       </c>
       <c r="E70">
         <f t="shared" si="3"/>
-        <v>21.890268595346015</v>
+        <v>47.709077170601972</v>
       </c>
       <c r="F70">
         <f t="shared" si="4"/>
-        <v>479.18385917639199</v>
+        <v>2276.1560444704542</v>
       </c>
       <c r="G70">
         <f t="shared" si="5"/>
-        <v>4.21248197153909E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>8.9719236211958237E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>578.02557373046795</v>
+        <v>776.08264160156205</v>
       </c>
       <c r="C71">
-        <v>528.77360350603306</v>
+        <v>840.94768648589502</v>
       </c>
       <c r="D71" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E71">
         <f t="shared" si="3"/>
-        <v>49.251970224434899</v>
+        <v>64.865044884332974</v>
       </c>
       <c r="F71">
         <f t="shared" si="4"/>
-        <v>2425.7565709886221</v>
+        <v>4207.474047846531</v>
       </c>
       <c r="G71">
         <f t="shared" si="5"/>
-        <v>9.3143776273758264E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>7.7133269912885286E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B72">
-        <v>579.46881103515602</v>
+        <v>444.77786254882801</v>
       </c>
       <c r="C72">
-        <v>531.75973386455405</v>
+        <v>422.50820310923598</v>
       </c>
       <c r="D72" t="s">
         <v>3</v>
       </c>
       <c r="E72">
         <f t="shared" si="3"/>
-        <v>47.709077170601972</v>
+        <v>22.269659439592033</v>
       </c>
       <c r="F72">
         <f t="shared" si="4"/>
-        <v>2276.1560444704542</v>
+        <v>495.93773155541055</v>
       </c>
       <c r="G72">
         <f t="shared" si="5"/>
-        <v>8.9719236211958237E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>5.2708229747279955E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="B73">
-        <v>570.70147705078102</v>
+        <v>169.40669250488199</v>
       </c>
       <c r="C73">
-        <v>531.95706698988602</v>
+        <v>119.294941764656</v>
       </c>
       <c r="D73" t="s">
         <v>3</v>
       </c>
       <c r="E73">
         <f t="shared" si="3"/>
-        <v>38.744410060895007</v>
+        <v>50.111750740225986</v>
       </c>
       <c r="F73">
         <f t="shared" si="4"/>
-        <v>1501.1293109667822</v>
+        <v>2511.1875622505395</v>
       </c>
       <c r="G73">
         <f t="shared" si="5"/>
-        <v>7.2833716224756248E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.42006601452629905</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="B74">
-        <v>558.60565185546795</v>
+        <v>321.39120483398398</v>
       </c>
       <c r="C74">
-        <v>532.03061407634402</v>
+        <v>281.83863884012999</v>
       </c>
       <c r="D74" t="s">
         <v>3</v>
       </c>
       <c r="E74">
         <f t="shared" si="3"/>
-        <v>26.575037779123932</v>
+        <v>39.552565993853989</v>
       </c>
       <c r="F74">
         <f t="shared" si="4"/>
-        <v>706.23263296186428</v>
+        <v>1564.4054766981749</v>
       </c>
       <c r="G74">
         <f t="shared" si="5"/>
-        <v>4.9950204134889375E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.14033762778811093</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B75">
-        <v>582.07379150390602</v>
+        <v>563.66357421875</v>
       </c>
       <c r="C75">
-        <v>535.87594210582597</v>
+        <v>573.73882342628201</v>
       </c>
       <c r="D75" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E75">
         <f t="shared" si="3"/>
-        <v>46.197849398080052</v>
+        <v>10.075249207532011</v>
       </c>
       <c r="F75">
         <f t="shared" si="4"/>
-        <v>2134.2412890076853</v>
+        <v>101.51064659387441</v>
       </c>
       <c r="G75">
         <f t="shared" si="5"/>
-        <v>8.6209970943156841E-2</v>
+        <v>1.7560689282562641E-2</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>461.46090698242102</v>
+        <v>417.90487670898398</v>
       </c>
       <c r="C76">
-        <v>538.98782634884105</v>
+        <v>393.79709969997703</v>
       </c>
       <c r="D76" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E76">
         <f t="shared" si="3"/>
-        <v>77.526919366420032</v>
+        <v>24.107777009006952</v>
       </c>
       <c r="F76">
         <f t="shared" si="4"/>
-        <v>6010.4232264473931</v>
+        <v>581.18491231600422</v>
       </c>
       <c r="G76">
         <f t="shared" si="5"/>
-        <v>0.14383797847828095</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>6.1218777455125981E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="B77">
-        <v>630.27978515625</v>
+        <v>582.07379150390602</v>
       </c>
       <c r="C77">
-        <v>554.05924497118497</v>
+        <v>535.87594210582597</v>
       </c>
       <c r="D77" t="s">
         <v>3</v>
       </c>
       <c r="E77">
         <f t="shared" si="3"/>
-        <v>76.220540185065033</v>
+        <v>46.197849398080052</v>
       </c>
       <c r="F77">
         <f t="shared" si="4"/>
-        <v>5809.5707461031134</v>
+        <v>2134.2412890076853</v>
       </c>
       <c r="G77">
         <f t="shared" si="5"/>
-        <v>0.13756749098019119</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>8.6209970943156841E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B78">
-        <v>564.57000732421795</v>
+        <v>656.76330566406205</v>
       </c>
       <c r="C78">
-        <v>554.76445781866698</v>
+        <v>609.01624296754301</v>
       </c>
       <c r="D78" t="s">
         <v>3</v>
       </c>
       <c r="E78">
         <f t="shared" si="3"/>
-        <v>9.8055495055509709</v>
+        <v>47.747062696519038</v>
       </c>
       <c r="F78">
         <f t="shared" si="4"/>
-        <v>96.14880110581089</v>
+        <v>2279.7819961453197</v>
       </c>
       <c r="G78">
         <f t="shared" si="5"/>
-        <v>1.7675158109635172E-2</v>
+        <v>7.8400310743540674E-2</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>564.03363037109295</v>
+        <v>608.22296142578102</v>
       </c>
       <c r="C79">
-        <v>555.93095680977206</v>
+        <v>581.73216898820101</v>
       </c>
       <c r="D79" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E79">
         <f t="shared" si="3"/>
-        <v>8.1026735613208984</v>
+        <v>26.490792437580012</v>
       </c>
       <c r="F79">
         <f t="shared" si="4"/>
-        <v>65.653318841328698</v>
+        <v>701.76208397094638</v>
       </c>
       <c r="G79">
         <f t="shared" si="5"/>
-        <v>1.4574963782945916E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>4.553778155960516E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="B80">
-        <v>600.2490234375</v>
+        <v>343.59362792968699</v>
       </c>
       <c r="C80">
-        <v>557.30303288974801</v>
+        <v>311.91396050328098</v>
       </c>
       <c r="D80" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E80">
         <f t="shared" si="3"/>
-        <v>42.94599054775199</v>
+        <v>31.679667426406013</v>
       </c>
       <c r="F80">
         <f t="shared" si="4"/>
-        <v>1844.3581041276032</v>
+        <v>1003.6013282476902</v>
       </c>
       <c r="G80">
         <f t="shared" si="5"/>
-        <v>7.7060392664771396E-2</v>
+        <v>0.10156540404696884</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B81">
-        <v>491.58703613281199</v>
+        <v>294.57525634765602</v>
       </c>
       <c r="C81">
-        <v>557.81862793743005</v>
+        <v>237.799859554215</v>
       </c>
       <c r="D81" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E81">
         <f t="shared" si="3"/>
-        <v>66.231591804618063</v>
+        <v>56.775396793441018</v>
       </c>
       <c r="F81">
         <f t="shared" si="4"/>
-        <v>4386.6237529735508</v>
+        <v>3223.4456810526726</v>
       </c>
       <c r="G81">
         <f t="shared" si="5"/>
-        <v>0.11873320195403585</v>
+        <v>0.23875286091368372</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B82">
-        <v>649.47229003906205</v>
+        <v>396.69305419921801</v>
       </c>
       <c r="C82">
-        <v>563.83659676086495</v>
+        <v>351.50523850415999</v>
       </c>
       <c r="D82" t="s">
         <v>4</v>
       </c>
       <c r="E82">
         <f t="shared" si="3"/>
-        <v>85.635693278197095</v>
+        <v>45.187815695058021</v>
       </c>
       <c r="F82">
         <f t="shared" si="4"/>
-        <v>7333.4719632374508</v>
+        <v>2041.938687290532</v>
       </c>
       <c r="G82">
         <f t="shared" si="5"/>
-        <v>0.1518803386835087</v>
+        <v>0.12855517000928915</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B83">
-        <v>563.66357421875</v>
+        <v>417.91387939453102</v>
       </c>
       <c r="C83">
-        <v>573.73882342628201</v>
+        <v>494.32432304149501</v>
       </c>
       <c r="D83" t="s">
         <v>4</v>
       </c>
       <c r="E83">
         <f t="shared" si="3"/>
-        <v>10.075249207532011</v>
+        <v>76.410443646963984</v>
       </c>
       <c r="F83">
         <f t="shared" si="4"/>
-        <v>101.51064659387441</v>
+        <v>5838.5558983258588</v>
       </c>
       <c r="G83">
         <f t="shared" si="5"/>
-        <v>1.7560689282562641E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.15457552882857004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B84">
-        <v>608.22296142578102</v>
+        <v>465.96179199218699</v>
       </c>
       <c r="C84">
-        <v>581.73216898820101</v>
+        <v>350.08991444801899</v>
       </c>
       <c r="D84" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E84">
         <f t="shared" si="3"/>
-        <v>26.490792437580012</v>
+        <v>115.871877544168</v>
       </c>
       <c r="F84">
         <f t="shared" si="4"/>
-        <v>701.76208397094638</v>
+        <v>13426.292005610665</v>
       </c>
       <c r="G84">
         <f t="shared" si="5"/>
-        <v>4.553778155960516E-2</v>
+        <v>0.33097747967650337</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="B85">
-        <v>594.01409912109295</v>
+        <v>445.454010009765</v>
       </c>
       <c r="C85">
-        <v>591.165467981559</v>
+        <v>398.10600829240599</v>
       </c>
       <c r="D85" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E85">
         <f t="shared" si="3"/>
-        <v>2.8486311395339499</v>
+        <v>47.348001717359011</v>
       </c>
       <c r="F85">
         <f t="shared" si="4"/>
-        <v>8.1146993691224889</v>
+        <v>2241.8332666270317</v>
       </c>
       <c r="G85">
         <f t="shared" si="5"/>
-        <v>4.8186697190892259E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.11893315029443677</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B86">
-        <v>656.76330566406205</v>
+        <v>706.370361328125</v>
       </c>
       <c r="C86">
-        <v>609.01624296754301</v>
+        <v>714.01731647784595</v>
       </c>
       <c r="D86" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E86">
         <f t="shared" si="3"/>
-        <v>47.747062696519038</v>
+        <v>7.6469551497209522</v>
       </c>
       <c r="F86">
         <f t="shared" si="4"/>
-        <v>2279.7819961453197</v>
+        <v>58.475923061843794</v>
       </c>
       <c r="G86">
         <f t="shared" si="5"/>
-        <v>7.8400310743540674E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>1.0709761476713733E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="B87">
-        <v>601.166259765625</v>
+        <v>360.73388671875</v>
       </c>
       <c r="C87">
-        <v>620.08851291183203</v>
+        <v>303.56178346553901</v>
       </c>
       <c r="D87" t="s">
         <v>3</v>
       </c>
       <c r="E87">
         <f t="shared" si="3"/>
-        <v>18.922253146207026</v>
+        <v>57.172103253210992</v>
       </c>
       <c r="F87">
         <f t="shared" si="4"/>
-        <v>358.05166412914173</v>
+        <v>3268.649390395819</v>
       </c>
       <c r="G87">
         <f t="shared" si="5"/>
-        <v>3.0515406675332989E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.18833761813005453</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="B88">
-        <v>667.70025634765602</v>
+        <v>809.08868408203102</v>
       </c>
       <c r="C88">
-        <v>623.63346122808503</v>
+        <v>727.39547401396101</v>
       </c>
       <c r="D88" t="s">
         <v>3</v>
       </c>
       <c r="E88">
         <f t="shared" si="3"/>
-        <v>44.066795119570997</v>
+        <v>81.693210068070016</v>
       </c>
       <c r="F88">
         <f t="shared" si="4"/>
-        <v>1941.8824321102463</v>
+        <v>6673.7805712258159</v>
       </c>
       <c r="G88">
         <f t="shared" si="5"/>
-        <v>7.0661370595466164E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.11230920865820794</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B89">
-        <v>736.36175537109295</v>
+        <v>858.61047363281205</v>
       </c>
       <c r="C89">
-        <v>677.12618253411904</v>
+        <v>778.00095662473404</v>
       </c>
       <c r="D89" t="s">
         <v>3</v>
       </c>
       <c r="E89">
         <f t="shared" si="3"/>
-        <v>59.235572836973915</v>
+        <v>80.609517008078001</v>
       </c>
       <c r="F89">
         <f t="shared" si="4"/>
-        <v>3508.853089324442</v>
+        <v>6497.8942322756166</v>
       </c>
       <c r="G89">
         <f t="shared" si="5"/>
-        <v>8.748084827452253E-2</v>
+        <v>0.10361107698092421</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="B90">
-        <v>555.32385253906205</v>
+        <v>721.76251220703102</v>
       </c>
       <c r="C90">
-        <v>683.86396860268997</v>
+        <v>730.12612093690404</v>
       </c>
       <c r="D90" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E90">
         <f t="shared" si="3"/>
-        <v>128.54011606362792</v>
+        <v>8.3636087298730217</v>
       </c>
       <c r="F90">
         <f t="shared" si="4"/>
-        <v>16522.561437650937</v>
+        <v>69.949950986408226</v>
       </c>
       <c r="G90">
         <f t="shared" si="5"/>
-        <v>0.18796152738719141</v>
+        <v>1.1455019194684841E-2</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="B91">
-        <v>583.63031005859295</v>
+        <v>564.57000732421795</v>
       </c>
       <c r="C91">
-        <v>686.282392087635</v>
+        <v>554.76445781866698</v>
       </c>
       <c r="D91" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E91">
         <f t="shared" si="3"/>
-        <v>102.65208202904205</v>
+        <v>9.8055495055509709</v>
       </c>
       <c r="F91">
         <f t="shared" si="4"/>
-        <v>10537.449944897178</v>
+        <v>96.14880110581089</v>
       </c>
       <c r="G91">
         <f t="shared" si="5"/>
-        <v>0.14957703011551821</v>
+        <v>1.7675158109635172E-2</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="B92">
-        <v>589.59265136718705</v>
+        <v>372.82122802734301</v>
       </c>
       <c r="C92">
-        <v>699.443705146051</v>
+        <v>329.56875386027599</v>
       </c>
       <c r="D92" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E92">
         <f t="shared" si="3"/>
-        <v>109.85105377886396</v>
+        <v>43.252474167067021</v>
       </c>
       <c r="F92">
         <f t="shared" si="4"/>
-        <v>12067.25401632686</v>
+        <v>1870.7765215728</v>
       </c>
       <c r="G92">
         <f t="shared" si="5"/>
-        <v>0.15705488943663584</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.1312396083076624</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="B93">
-        <v>749.23443603515602</v>
+        <v>541.54278564453102</v>
       </c>
       <c r="C93">
-        <v>712.51911813848096</v>
+        <v>519.65251704918501</v>
       </c>
       <c r="D93" t="s">
         <v>3</v>
       </c>
       <c r="E93">
         <f t="shared" si="3"/>
-        <v>36.71531789667506</v>
+        <v>21.890268595346015</v>
       </c>
       <c r="F93">
         <f t="shared" si="4"/>
-        <v>1348.014568253908</v>
+        <v>479.18385917639199</v>
       </c>
       <c r="G93">
         <f t="shared" si="5"/>
-        <v>5.1528888084571074E-2</v>
+        <v>4.21248197153909E-2</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B94">
-        <v>706.370361328125</v>
+        <v>319.06365966796801</v>
       </c>
       <c r="C94">
-        <v>714.01731647784595</v>
+        <v>212.237030994398</v>
       </c>
       <c r="D94" t="s">
         <v>4</v>
       </c>
       <c r="E94">
         <f t="shared" si="3"/>
-        <v>7.6469551497209522</v>
+        <v>106.82662867357001</v>
       </c>
       <c r="F94">
         <f t="shared" si="4"/>
-        <v>58.475923061843794</v>
+        <v>11411.928593760811</v>
       </c>
       <c r="G94">
         <f t="shared" si="5"/>
-        <v>1.0709761476713733E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.50333642613192087</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B95">
-        <v>809.08868408203102</v>
+        <v>476.10983276367102</v>
       </c>
       <c r="C95">
-        <v>727.39547401396101</v>
+        <v>391.47679719316699</v>
       </c>
       <c r="D95" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E95">
         <f t="shared" si="3"/>
-        <v>81.693210068070016</v>
+        <v>84.633035570504035</v>
       </c>
       <c r="F95">
         <f t="shared" si="4"/>
-        <v>6673.7805712258159</v>
+        <v>7162.7507098782016</v>
       </c>
       <c r="G95">
         <f t="shared" si="5"/>
-        <v>0.11230920865820794</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.21618914882647164</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B96">
-        <v>721.76251220703102</v>
+        <v>649.47229003906205</v>
       </c>
       <c r="C96">
-        <v>730.12612093690404</v>
+        <v>563.83659676086495</v>
       </c>
       <c r="D96" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E96">
         <f t="shared" si="3"/>
-        <v>8.3636087298730217</v>
+        <v>85.635693278197095</v>
       </c>
       <c r="F96">
         <f t="shared" si="4"/>
-        <v>69.949950986408226</v>
+        <v>7333.4719632374508</v>
       </c>
       <c r="G96">
         <f t="shared" si="5"/>
-        <v>1.1455019194684841E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.1518803386835087</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="B97">
-        <v>775.52917480468705</v>
+        <v>261.97866821289</v>
       </c>
       <c r="C97">
-        <v>764.40631068908101</v>
+        <v>183.39758846720599</v>
       </c>
       <c r="D97" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E97">
         <f t="shared" si="3"/>
-        <v>11.122864115606035</v>
+        <v>78.581079745684008</v>
       </c>
       <c r="F97">
         <f t="shared" si="4"/>
-        <v>123.71810613423642</v>
+        <v>6174.9860939975497</v>
       </c>
       <c r="G97">
         <f t="shared" si="5"/>
-        <v>1.4550984156029833E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.42847389871615127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B98">
-        <v>858.61047363281205</v>
+        <v>459.97882080078102</v>
       </c>
       <c r="C98">
-        <v>778.00095662473404</v>
+        <v>451.531945540658</v>
       </c>
       <c r="D98" t="s">
         <v>3</v>
       </c>
       <c r="E98">
         <f t="shared" si="3"/>
-        <v>80.609517008078001</v>
+        <v>8.4468752601230221</v>
       </c>
       <c r="F98">
         <f t="shared" si="4"/>
-        <v>6497.8942322756166</v>
+        <v>71.349701660078367</v>
       </c>
       <c r="G98">
         <f t="shared" si="5"/>
-        <v>0.10361107698092421</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>1.8707148726783557E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="B99">
-        <v>869.896484375</v>
+        <v>461.46090698242102</v>
       </c>
       <c r="C99">
-        <v>838.39826506611496</v>
+        <v>538.98782634884105</v>
       </c>
       <c r="D99" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E99">
         <f t="shared" si="3"/>
-        <v>31.498219308885041</v>
+        <v>77.526919366420032</v>
       </c>
       <c r="F99">
         <f t="shared" si="4"/>
-        <v>992.13781963061842</v>
+        <v>6010.4232264473931</v>
       </c>
       <c r="G99">
         <f t="shared" si="5"/>
-        <v>3.7569518713640386E-2</v>
+        <v>0.14383797847828095</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="B100">
-        <v>776.08264160156205</v>
+        <v>510.06600952148398</v>
       </c>
       <c r="C100">
-        <v>840.94768648589502</v>
+        <v>471.78587247841</v>
       </c>
       <c r="D100" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E100">
         <f t="shared" si="3"/>
-        <v>64.865044884332974</v>
+        <v>38.280137043073978</v>
       </c>
       <c r="F100">
         <f t="shared" si="4"/>
-        <v>4207.474047846531</v>
+        <v>1465.3688920365246</v>
       </c>
       <c r="G100">
         <f t="shared" si="5"/>
-        <v>7.7133269912885286E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>8.1138794686620816E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="B101">
-        <v>867.492431640625</v>
+        <v>376.77990722656199</v>
       </c>
       <c r="C101">
-        <v>857.76239337747097</v>
+        <v>238.399755244624</v>
       </c>
       <c r="D101" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E101">
         <f t="shared" si="3"/>
-        <v>9.7300382631540288</v>
+        <v>138.38015198193798</v>
       </c>
       <c r="F101">
         <f t="shared" si="4"/>
-        <v>94.67364460244147</v>
+        <v>19149.066462544255</v>
       </c>
       <c r="G101">
         <f t="shared" si="5"/>
-        <v>1.1343512303962926E-2</v>
+        <v>0.5804542535706253</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D101" xr:uid="{091DA011-387F-43E2-B44A-8E5D8416D7C0}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="False"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D101">
-      <sortCondition ref="C1:C101"/>
+    <sortState ref="A2:D101">
+      <sortCondition ref="A1:A101"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14954,7 +14947,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{D87CAB7D-7E87-4C41-902D-69DBEC1B5926}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G101">
+    <sortState ref="A2:G101">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -19934,7 +19927,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{E3D5E7A3-63C6-43CA-9C77-09B051BC7A50}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G101">
+    <sortState ref="A2:G101">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -19947,8 +19940,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1" activeCellId="2" sqref="D1:D1048576 F1:F1048576 H1:H1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19986,7 +19979,7 @@
       </c>
       <c r="Q1">
         <f>CORREL(A7:A100,C7:C100)</f>
-        <v>0.68345307302895553</v>
+        <v>0.6627568589106918</v>
       </c>
       <c r="R1" t="s">
         <v>125</v>
@@ -19998,130 +19991,130 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C2">
-        <v>201.09440612792901</v>
+        <v>134.27748107910099</v>
       </c>
       <c r="D2">
-        <v>119.294941764656</v>
+        <v>148.97036544308099</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2">
         <f>ABS(C2-D2)</f>
-        <v>81.799464363273003</v>
+        <v>14.692884363979999</v>
       </c>
       <c r="G2">
         <f>F2*F2</f>
-        <v>6691.1523701183696</v>
+        <v>215.88085093328795</v>
       </c>
       <c r="H2">
         <f>F2/D2</f>
-        <v>0.68569097023951153</v>
+        <v>9.8629578576108795E-2</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C3">
-        <v>134.27748107910099</v>
+        <v>199.27615356445301</v>
       </c>
       <c r="D3">
-        <v>148.97036544308099</v>
+        <v>215.702717299406</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3">
         <f>ABS(C3-D3)</f>
-        <v>14.692884363979999</v>
+        <v>16.426563734952992</v>
       </c>
       <c r="G3">
         <f>F3*F3</f>
-        <v>215.88085093328795</v>
+        <v>269.83199613847279</v>
       </c>
       <c r="H3">
         <f>F3/D3</f>
-        <v>9.8629578576108795E-2</v>
+        <v>7.6153717211416089E-2</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C4">
-        <v>166.72196960449199</v>
+        <v>227.627517700195</v>
       </c>
       <c r="D4">
-        <v>149.26188632848701</v>
+        <v>228.95067633872799</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4">
         <f>ABS(C4-D4)</f>
-        <v>17.46008327600498</v>
+        <v>1.3231586385329877</v>
       </c>
       <c r="G4">
         <f>F4*F4</f>
-        <v>304.85450800502878</v>
+        <v>1.7507487827244694</v>
       </c>
       <c r="H4">
         <f>F4/D4</f>
-        <v>0.11697616655855353</v>
+        <v>5.7792300931026764E-3</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C5">
-        <v>184.89289855957</v>
+        <v>292.19519042968699</v>
       </c>
       <c r="D5">
-        <v>161.036347914581</v>
+        <v>329.56875386027599</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5">
         <f>ABS(C5-D5)</f>
-        <v>23.856550644988999</v>
+        <v>37.373563430589002</v>
       </c>
       <c r="G5">
         <f>F5*F5</f>
-        <v>569.13500867692505</v>
+        <v>1396.7832435002595</v>
       </c>
       <c r="H5">
         <f>F5/D5</f>
-        <v>0.14814388772429998</v>
+        <v>0.11340141622295269</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -20222,34 +20215,34 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>199.27615356445301</v>
+        <v>374.43716430664</v>
       </c>
       <c r="D9">
-        <v>215.702717299406</v>
+        <v>293.61879562587001</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9">
         <f>ABS(C9-D9)</f>
-        <v>16.426563734952992</v>
+        <v>80.818368680769993</v>
       </c>
       <c r="G9">
         <f>F9*F9</f>
-        <v>269.83199613847279</v>
+        <v>6531.6087162208642</v>
       </c>
       <c r="H9">
         <f>F9/D9</f>
-        <v>7.6153717211416089E-2</v>
+        <v>0.2752493024450281</v>
       </c>
       <c r="I9" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -20286,130 +20279,130 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>227.627517700195</v>
+        <v>333.21325683593699</v>
       </c>
       <c r="D11">
-        <v>228.95067633872799</v>
+        <v>303.65469990887999</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
       </c>
       <c r="F11">
         <f>ABS(C11-D11)</f>
-        <v>1.3231586385329877</v>
+        <v>29.558556927056998</v>
       </c>
       <c r="G11">
         <f>F11*F11</f>
-        <v>1.7507487827244694</v>
+        <v>873.70828761006919</v>
       </c>
       <c r="H11">
         <f>F11/D11</f>
-        <v>5.7792300931026764E-3</v>
+        <v>9.7342662359340595E-2</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>294.75125122070301</v>
+        <v>363.35455322265602</v>
       </c>
       <c r="D12">
-        <v>237.799859554215</v>
+        <v>331.211512959902</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12">
         <f>ABS(C12-D12)</f>
-        <v>56.951391666488007</v>
+        <v>32.143040262754027</v>
       </c>
       <c r="G12">
         <f>F12*F12</f>
-        <v>3243.4610127497194</v>
+        <v>1033.1750373330265</v>
       </c>
       <c r="H12">
         <f>F12/D12</f>
-        <v>0.23949295753685632</v>
+        <v>9.7046868858829238E-2</v>
       </c>
       <c r="I12" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>257.508056640625</v>
+        <v>406.57620239257801</v>
       </c>
       <c r="D13">
-        <v>241.05421702855401</v>
+        <v>329.366374829346</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
       </c>
       <c r="F13">
         <f>ABS(C13-D13)</f>
-        <v>16.453839612070993</v>
+        <v>77.209827563232011</v>
       </c>
       <c r="G13">
         <f>F13*F13</f>
-        <v>270.72883797975652</v>
+        <v>5961.3574723440215</v>
       </c>
       <c r="H13">
         <f>F13/D13</f>
-        <v>6.8257837655343559E-2</v>
+        <v>0.23441927732676598</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C14">
-        <v>386.14212036132801</v>
+        <v>307.93194580078102</v>
       </c>
       <c r="D14">
-        <v>272.375369907991</v>
+        <v>299.21131044704998</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
       </c>
       <c r="F14">
         <f>ABS(C14-D14)</f>
-        <v>113.76675045333701</v>
+        <v>8.7206353537310406</v>
       </c>
       <c r="G14">
         <f>F14*F14</f>
-        <v>12942.873508711857</v>
+        <v>76.049480972743709</v>
       </c>
       <c r="H14">
         <f>F14/D14</f>
-        <v>0.41768369324938476</v>
+        <v>2.9145406771895043E-2</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -20574,34 +20567,34 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>289.88739013671801</v>
+        <v>257.508056640625</v>
       </c>
       <c r="D20">
-        <v>273.376205780406</v>
+        <v>241.05421702855401</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
       </c>
       <c r="F20">
         <f>ABS(C20-D20)</f>
-        <v>16.511184356312015</v>
+        <v>16.453839612070993</v>
       </c>
       <c r="G20">
         <f>F20*F20</f>
-        <v>272.61920884812258</v>
+        <v>270.72883797975652</v>
       </c>
       <c r="H20">
         <f>F20/D20</f>
-        <v>6.0397298693855232E-2</v>
+        <v>6.8257837655343559E-2</v>
       </c>
       <c r="I20" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -20638,34 +20631,34 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
         <v>29</v>
       </c>
-      <c r="B22">
-        <v>72</v>
-      </c>
       <c r="C22">
-        <v>323.85678100585898</v>
+        <v>386.14212036132801</v>
       </c>
       <c r="D22">
-        <v>281.83863884012999</v>
+        <v>272.375369907991</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
       </c>
       <c r="F22">
         <f>ABS(C22-D22)</f>
-        <v>42.018142165728989</v>
+        <v>113.76675045333701</v>
       </c>
       <c r="G22">
         <f>F22*F22</f>
-        <v>1765.5242710594125</v>
+        <v>12942.873508711857</v>
       </c>
       <c r="H22">
         <f>F22/D22</f>
-        <v>0.14908581143681771</v>
+        <v>0.41768369324938476</v>
       </c>
       <c r="I22" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -20894,66 +20887,66 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C30">
-        <v>374.43716430664</v>
+        <v>396.14340209960898</v>
       </c>
       <c r="D30">
-        <v>293.61879562587001</v>
+        <v>418.756733795054</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
       </c>
       <c r="F30">
         <f>ABS(C30-D30)</f>
-        <v>80.818368680769993</v>
+        <v>22.613331695445027</v>
       </c>
       <c r="G30">
         <f>F30*F30</f>
-        <v>6531.6087162208642</v>
+        <v>511.36277036821866</v>
       </c>
       <c r="H30">
         <f>F30/D30</f>
-        <v>0.2752493024450281</v>
+        <v>5.4001117762353022E-2</v>
       </c>
       <c r="I30" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C31">
-        <v>307.93194580078102</v>
+        <v>323.85678100585898</v>
       </c>
       <c r="D31">
-        <v>299.21131044704998</v>
+        <v>281.83863884012999</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
       </c>
       <c r="F31">
         <f>ABS(C31-D31)</f>
-        <v>8.7206353537310406</v>
+        <v>42.018142165728989</v>
       </c>
       <c r="G31">
         <f>F31*F31</f>
-        <v>76.049480972743709</v>
+        <v>1765.5242710594125</v>
       </c>
       <c r="H31">
         <f>F31/D31</f>
-        <v>2.9145406771895043E-2</v>
+        <v>0.14908581143681771</v>
       </c>
       <c r="I31" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -20990,34 +20983,34 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="C33">
-        <v>219.85231018066401</v>
+        <v>289.88739013671801</v>
       </c>
       <c r="D33">
-        <v>303.56178346553901</v>
+        <v>273.376205780406</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
       </c>
       <c r="F33">
         <f>ABS(C33-D33)</f>
-        <v>83.709473284875003</v>
+        <v>16.511184356312015</v>
       </c>
       <c r="G33">
         <f>F33*F33</f>
-        <v>7007.275917631202</v>
+        <v>272.61920884812258</v>
       </c>
       <c r="H33">
         <f>F33/D33</f>
-        <v>0.27575761457593978</v>
+        <v>6.0397298693855232E-2</v>
       </c>
       <c r="I33" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -21150,34 +21143,34 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C38">
-        <v>333.21325683593699</v>
+        <v>201.09440612792901</v>
       </c>
       <c r="D38">
-        <v>303.65469990887999</v>
+        <v>119.294941764656</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
       </c>
       <c r="F38">
         <f>ABS(C38-D38)</f>
-        <v>29.558556927056998</v>
+        <v>81.799464363273003</v>
       </c>
       <c r="G38">
         <f>F38*F38</f>
-        <v>873.70828761006919</v>
+        <v>6691.1523701183696</v>
       </c>
       <c r="H38">
         <f>F38/D38</f>
-        <v>9.7342662359340595E-2</v>
+        <v>0.68569097023951153</v>
       </c>
       <c r="I38" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -21214,98 +21207,98 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C40">
-        <v>406.57620239257801</v>
+        <v>166.72196960449199</v>
       </c>
       <c r="D40">
-        <v>329.366374829346</v>
+        <v>149.26188632848701</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
       </c>
       <c r="F40">
         <f>ABS(C40-D40)</f>
-        <v>77.209827563232011</v>
+        <v>17.46008327600498</v>
       </c>
       <c r="G40">
         <f>F40*F40</f>
-        <v>5961.3574723440215</v>
+        <v>304.85450800502878</v>
       </c>
       <c r="H40">
         <f>F40/D40</f>
-        <v>0.23441927732676598</v>
+        <v>0.11697616655855353</v>
       </c>
       <c r="I40" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="C41">
-        <v>292.19519042968699</v>
+        <v>184.89289855957</v>
       </c>
       <c r="D41">
-        <v>329.56875386027599</v>
+        <v>161.036347914581</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
       </c>
       <c r="F41">
         <f>ABS(C41-D41)</f>
-        <v>37.373563430589002</v>
+        <v>23.856550644988999</v>
       </c>
       <c r="G41">
         <f>F41*F41</f>
-        <v>1396.7832435002595</v>
+        <v>569.13500867692505</v>
       </c>
       <c r="H41">
         <f>F41/D41</f>
-        <v>0.11340141622295269</v>
+        <v>0.14814388772429998</v>
       </c>
       <c r="I41" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="C42">
-        <v>363.35455322265602</v>
+        <v>294.75125122070301</v>
       </c>
       <c r="D42">
-        <v>331.211512959902</v>
+        <v>237.799859554215</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
       </c>
       <c r="F42">
         <f>ABS(C42-D42)</f>
-        <v>32.143040262754027</v>
+        <v>56.951391666488007</v>
       </c>
       <c r="G42">
         <f>F42*F42</f>
-        <v>1033.1750373330265</v>
+        <v>3243.4610127497194</v>
       </c>
       <c r="H42">
         <f>F42/D42</f>
-        <v>9.7046868858829238E-2</v>
+        <v>0.23949295753685632</v>
       </c>
       <c r="I42" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -21374,34 +21367,34 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C45">
-        <v>393.62634277343699</v>
+        <v>473.083740234375</v>
       </c>
       <c r="D45">
-        <v>393.80879736490698</v>
+        <v>532.03061407634402</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
       </c>
       <c r="F45">
         <f>ABS(C45-D45)</f>
-        <v>0.1824545914699911</v>
+        <v>58.946873841969023</v>
       </c>
       <c r="G45">
         <f>F45*F45</f>
-        <v>3.3289677948481353E-2</v>
+        <v>3474.7339357410119</v>
       </c>
       <c r="H45">
         <f>F45/D45</f>
-        <v>4.6330755608013229E-4</v>
+        <v>0.11079601865450248</v>
       </c>
       <c r="I45" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -21438,66 +21431,66 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C47">
-        <v>395.87487792968699</v>
+        <v>404.02548217773398</v>
       </c>
       <c r="D47">
-        <v>414.46032505437802</v>
+        <v>486.864857221916</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
       </c>
       <c r="F47">
         <f>ABS(C47-D47)</f>
-        <v>18.585447124691029</v>
+        <v>82.83937504418202</v>
       </c>
       <c r="G47">
         <f>F47*F47</f>
-        <v>345.41884482468606</v>
+        <v>6862.3620577106467</v>
       </c>
       <c r="H47">
         <f>F47/D47</f>
-        <v>4.484252412399807E-2</v>
+        <v>0.17014860246202432</v>
       </c>
       <c r="I47" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C48">
-        <v>396.14340209960898</v>
+        <v>393.62634277343699</v>
       </c>
       <c r="D48">
-        <v>418.756733795054</v>
+        <v>393.80879736490698</v>
       </c>
       <c r="E48" t="s">
         <v>4</v>
       </c>
       <c r="F48">
         <f>ABS(C48-D48)</f>
-        <v>22.613331695445027</v>
+        <v>0.1824545914699911</v>
       </c>
       <c r="G48">
         <f>F48*F48</f>
-        <v>511.36277036821866</v>
+        <v>3.3289677948481353E-2</v>
       </c>
       <c r="H48">
         <f>F48/D48</f>
-        <v>5.4001117762353022E-2</v>
+        <v>4.6330755608013229E-4</v>
       </c>
       <c r="I48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -21534,34 +21527,34 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="C50">
-        <v>333.40493774414</v>
+        <v>395.87487792968699</v>
       </c>
       <c r="D50">
-        <v>451.531945540658</v>
+        <v>414.46032505437802</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
       </c>
       <c r="F50">
         <f>ABS(C50-D50)</f>
-        <v>118.127007796518</v>
+        <v>18.585447124691029</v>
       </c>
       <c r="G50">
         <f>F50*F50</f>
-        <v>13953.989970958624</v>
+        <v>345.41884482468606</v>
       </c>
       <c r="H50">
         <f>F50/D50</f>
-        <v>0.26161384363419599</v>
+        <v>4.484252412399807E-2</v>
       </c>
       <c r="I50" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -21758,34 +21751,34 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C57">
-        <v>485.52694702148398</v>
+        <v>451.113189697265</v>
       </c>
       <c r="D57">
-        <v>473.563338397255</v>
+        <v>620.08851291183203</v>
       </c>
       <c r="E57" t="s">
         <v>4</v>
       </c>
       <c r="F57">
         <f>ABS(C57-D57)</f>
-        <v>11.963608624228982</v>
+        <v>168.97532321456703</v>
       </c>
       <c r="G57">
         <f>F57*F57</f>
-        <v>143.12793131372607</v>
+        <v>28552.659855467395</v>
       </c>
       <c r="H57">
         <f>F57/D57</f>
-        <v>2.526295355700265E-2</v>
+        <v>0.27250194076501622</v>
       </c>
       <c r="I57" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -21886,34 +21879,34 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="C61">
-        <v>404.02548217773398</v>
+        <v>543.22033691406205</v>
       </c>
       <c r="D61">
-        <v>486.864857221916</v>
+        <v>531.75973386455405</v>
       </c>
       <c r="E61" t="s">
         <v>4</v>
       </c>
       <c r="F61">
         <f>ABS(C61-D61)</f>
-        <v>82.83937504418202</v>
+        <v>11.460603049507995</v>
       </c>
       <c r="G61">
         <f>F61*F61</f>
-        <v>6862.3620577106467</v>
+        <v>131.34542225839195</v>
       </c>
       <c r="H61">
         <f>F61/D61</f>
-        <v>0.17014860246202432</v>
+        <v>2.1552220523013792E-2</v>
       </c>
       <c r="I61" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -22014,34 +22007,34 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="C65">
-        <v>379.45809936523398</v>
+        <v>588.41320800781205</v>
       </c>
       <c r="D65">
-        <v>501.19809131285399</v>
+        <v>623.63346122808503</v>
       </c>
       <c r="E65" t="s">
         <v>4</v>
       </c>
       <c r="F65">
         <f>ABS(C65-D65)</f>
-        <v>121.73999194762001</v>
+        <v>35.22025322027298</v>
       </c>
       <c r="G65">
         <f>F65*F65</f>
-        <v>14820.625639406586</v>
+        <v>1240.4662369001492</v>
       </c>
       <c r="H65">
         <f>F65/D65</f>
-        <v>0.24289795603317335</v>
+        <v>5.6475887536431721E-2</v>
       </c>
       <c r="I65" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -22142,34 +22135,34 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C69">
-        <v>543.22033691406205</v>
+        <v>561.31964111328102</v>
       </c>
       <c r="D69">
-        <v>531.75973386455405</v>
+        <v>609.01624296754301</v>
       </c>
       <c r="E69" t="s">
         <v>4</v>
       </c>
       <c r="F69">
         <f>ABS(C69-D69)</f>
-        <v>11.460603049507995</v>
+        <v>47.696601854261985</v>
       </c>
       <c r="G69">
         <f>F69*F69</f>
-        <v>131.34542225839195</v>
+        <v>2274.9658284439879</v>
       </c>
       <c r="H69">
         <f>F69/D69</f>
-        <v>2.1552220523013792E-2</v>
+        <v>7.8317454427572528E-2</v>
       </c>
       <c r="I69" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -22270,34 +22263,34 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B73">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="C73">
-        <v>473.083740234375</v>
+        <v>379.45809936523398</v>
       </c>
       <c r="D73">
-        <v>532.03061407634402</v>
+        <v>501.19809131285399</v>
       </c>
       <c r="E73" t="s">
         <v>4</v>
       </c>
       <c r="F73">
         <f>ABS(C73-D73)</f>
-        <v>58.946873841969023</v>
+        <v>121.73999194762001</v>
       </c>
       <c r="G73">
         <f>F73*F73</f>
-        <v>3474.7339357410119</v>
+        <v>14820.625639406586</v>
       </c>
       <c r="H73">
         <f>F73/D73</f>
-        <v>0.11079601865450248</v>
+        <v>0.24289795603317335</v>
       </c>
       <c r="I73" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -22334,34 +22327,34 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B75">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C75">
-        <v>551.11315917968705</v>
+        <v>485.52694702148398</v>
       </c>
       <c r="D75">
-        <v>535.87594210582597</v>
+        <v>473.563338397255</v>
       </c>
       <c r="E75" t="s">
         <v>4</v>
       </c>
       <c r="F75">
         <f>ABS(C75-D75)</f>
-        <v>15.237217073861075</v>
+        <v>11.963608624228982</v>
       </c>
       <c r="G75">
         <f>F75*F75</f>
-        <v>232.17278415596346</v>
+        <v>143.12793131372607</v>
       </c>
       <c r="H75">
         <f>F75/D75</f>
-        <v>2.8434224932702791E-2</v>
+        <v>2.526295355700265E-2</v>
       </c>
       <c r="I75" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -22462,34 +22455,34 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C79">
-        <v>561.31964111328102</v>
+        <v>551.11315917968705</v>
       </c>
       <c r="D79">
-        <v>609.01624296754301</v>
+        <v>535.87594210582597</v>
       </c>
       <c r="E79" t="s">
         <v>4</v>
       </c>
       <c r="F79">
         <f>ABS(C79-D79)</f>
-        <v>47.696601854261985</v>
+        <v>15.237217073861075</v>
       </c>
       <c r="G79">
         <f>F79*F79</f>
-        <v>2274.9658284439879</v>
+        <v>232.17278415596346</v>
       </c>
       <c r="H79">
         <f>F79/D79</f>
-        <v>7.8317454427572528E-2</v>
+        <v>2.8434224932702791E-2</v>
       </c>
       <c r="I79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -22654,66 +22647,66 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="B85">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C85">
-        <v>451.113189697265</v>
+        <v>672.613037109375</v>
       </c>
       <c r="D85">
-        <v>620.08851291183203</v>
+        <v>764.40631068908101</v>
       </c>
       <c r="E85" t="s">
         <v>4</v>
       </c>
       <c r="F85">
         <f>ABS(C85-D85)</f>
-        <v>168.97532321456703</v>
+        <v>91.79327357970601</v>
       </c>
       <c r="G85">
         <f>F85*F85</f>
-        <v>28552.659855467395</v>
+        <v>8426.0050744787532</v>
       </c>
       <c r="H85">
         <f>F85/D85</f>
-        <v>0.27250194076501622</v>
+        <v>0.12008440052903034</v>
       </c>
       <c r="I85" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B86">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C86">
-        <v>588.41320800781205</v>
+        <v>738.38610839843705</v>
       </c>
       <c r="D86">
-        <v>623.63346122808503</v>
+        <v>838.39826506611496</v>
       </c>
       <c r="E86" t="s">
         <v>4</v>
       </c>
       <c r="F86">
         <f>ABS(C86-D86)</f>
-        <v>35.22025322027298</v>
+        <v>100.01215666767791</v>
       </c>
       <c r="G86">
         <f>F86*F86</f>
-        <v>1240.4662369001492</v>
+        <v>10002.431481320153</v>
       </c>
       <c r="H86">
         <f>F86/D86</f>
-        <v>5.6475887536431721E-2</v>
+        <v>0.11928955585301824</v>
       </c>
       <c r="I86" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -22910,34 +22903,34 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B93">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C93">
-        <v>672.613037109375</v>
+        <v>333.40493774414</v>
       </c>
       <c r="D93">
-        <v>764.40631068908101</v>
+        <v>451.531945540658</v>
       </c>
       <c r="E93" t="s">
         <v>4</v>
       </c>
       <c r="F93">
         <f>ABS(C93-D93)</f>
-        <v>91.79327357970601</v>
+        <v>118.127007796518</v>
       </c>
       <c r="G93">
         <f>F93*F93</f>
-        <v>8426.0050744787532</v>
+        <v>13953.989970958624</v>
       </c>
       <c r="H93">
         <f>F93/D93</f>
-        <v>0.12008440052903034</v>
+        <v>0.26161384363419599</v>
       </c>
       <c r="I93" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -22974,34 +22967,34 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B95">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C95">
-        <v>738.38610839843705</v>
+        <v>219.85231018066401</v>
       </c>
       <c r="D95">
-        <v>838.39826506611496</v>
+        <v>303.56178346553901</v>
       </c>
       <c r="E95" t="s">
         <v>4</v>
       </c>
       <c r="F95">
         <f>ABS(C95-D95)</f>
-        <v>100.01215666767791</v>
+        <v>83.709473284875003</v>
       </c>
       <c r="G95">
         <f>F95*F95</f>
-        <v>10002.431481320153</v>
+        <v>7007.275917631202</v>
       </c>
       <c r="H95">
         <f>F95/D95</f>
-        <v>0.11928955585301824</v>
+        <v>0.27575761457593978</v>
       </c>
       <c r="I95" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -23203,8 +23196,8 @@
         <filter val="False"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I95">
-      <sortCondition ref="D1:D101"/>
+    <sortState ref="A2:I95">
+      <sortCondition ref="A1:A101"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -23216,8 +23209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85350088-2B2F-4195-8716-1228A3BF83CE}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
